--- a/Semestres/Proyectos de Inversión/Casos Finales/CASOS.xlsx
+++ b/Semestres/Proyectos de Inversión/Casos Finales/CASOS.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scago\Documents\GitHub\IA_School\Semestres\Proyectos de Inversión\Casos Finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E325A5F-6B79-49B7-B31E-7E19A0113BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7791FD9C-AAE0-4F03-B6CB-C9D66610A514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" activeTab="4" xr2:uid="{DF7EAB89-8D33-4DCA-878B-1977CA593F3E}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" activeTab="6" xr2:uid="{DF7EAB89-8D33-4DCA-878B-1977CA593F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Fresadora" sheetId="1" r:id="rId1"/>
     <sheet name="3. TVEO" sheetId="2" r:id="rId2"/>
-    <sheet name="4. Cementera" sheetId="3" r:id="rId3"/>
-    <sheet name="5. " sheetId="4" r:id="rId4"/>
-    <sheet name="6. Camión de Volteo" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId3"/>
+    <sheet name="4. Cementera" sheetId="3" r:id="rId4"/>
+    <sheet name="5. " sheetId="4" r:id="rId5"/>
+    <sheet name="6. Camión de Volteo" sheetId="5" r:id="rId6"/>
+    <sheet name="7. Tesla" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -176,8 +178,43 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sara Carolina Gómez Delgado</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{3DE5AC38-2A8F-46D9-B110-D05902D48F59}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Anónimo:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sospechamos que la tasa de interés fija está incluida en el CAT.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
   <si>
     <t xml:space="preserve">Reemplazo vieja maquinaria fresadora </t>
   </si>
@@ -363,16 +400,32 @@
   </si>
   <si>
     <t>TIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago </t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
+  <si>
+    <t>Plazo</t>
+  </si>
+  <si>
+    <t>Tasa</t>
+  </si>
+  <si>
+    <t>meses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -510,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -537,9 +590,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -560,18 +610,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -591,7 +634,12 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1263,17 +1311,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1284,19 +1332,19 @@
       <c r="C3" s="15">
         <v>20000</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>-2000000</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>-1200000</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <v>90</v>
       </c>
     </row>
@@ -1307,16 +1355,16 @@
       <c r="C4" s="15">
         <v>30000</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>-30</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>-31</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>30</v>
       </c>
       <c r="J4" s="9">
@@ -1330,19 +1378,19 @@
       <c r="C5" s="15">
         <v>50000</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>40000</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>0</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="22" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1353,16 +1401,16 @@
       <c r="C6" s="15">
         <v>80000</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="24" t="s">
         <v>1</v>
       </c>
       <c r="J6" s="9">
@@ -1376,13 +1424,13 @@
       <c r="C7" s="15">
         <v>80000</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>-2500000</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>-1200000</v>
       </c>
     </row>
@@ -1393,28 +1441,28 @@
       <c r="C8" s="15">
         <v>80000</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="3"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>36</v>
       </c>
       <c r="I10" t="s">
@@ -1423,47 +1471,47 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="30">
         <f>NPV(J6,K13:K18)</f>
         <v>3541362.2682061666</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="18">
+      <c r="B12" s="13">
         <v>0</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="33">
+      <c r="D12" s="29">
         <f>F7</f>
         <v>-2500000</v>
       </c>
@@ -1483,26 +1531,26 @@
       <c r="L12" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="30">
         <f>M11+K12</f>
         <v>1041362.2682061666</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="18">
+      <c r="B13" s="13">
         <v>1</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="29">
         <f>$F$3</f>
         <v>-2000000</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="33">
+      <c r="E13" s="29">
         <f>$F$4*H13</f>
         <v>-600000</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <f>H13*$J$3</f>
         <v>1800000</v>
       </c>
@@ -1524,21 +1572,21 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="18">
+      <c r="B14" s="13">
         <v>2</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="29">
         <f t="shared" ref="C14:C18" si="1">$F$3</f>
         <v>-2000000</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="33">
+      <c r="E14" s="29">
         <f>$F$4*H14</f>
         <v>-900000</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="22">
-        <f t="shared" ref="G14:G18" si="2">H14*$J$3</f>
+      <c r="G14" s="21">
+        <f t="shared" ref="G14:G17" si="2">H14*$J$3</f>
         <v>2700000</v>
       </c>
       <c r="H14" s="15">
@@ -1550,29 +1598,29 @@
         <v>-200000</v>
       </c>
       <c r="J14" s="16">
-        <f t="shared" ref="J14:J18" si="4">MIN(0,I14*$J$4*-1)</f>
+        <f t="shared" ref="J14:J17" si="4">MIN(0,I14*$J$4*-1)</f>
         <v>0</v>
       </c>
       <c r="K14" s="16">
-        <f t="shared" ref="K13:K18" si="5">I14+J14</f>
+        <f t="shared" ref="K14:K16" si="5">I14+J14</f>
         <v>-200000</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="18">
+      <c r="B15" s="13">
         <v>3</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="29">
         <f t="shared" si="1"/>
         <v>-2000000</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="33">
+      <c r="E15" s="29">
         <f>$F$4*H15</f>
         <v>-1500000</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <f t="shared" si="2"/>
         <v>4500000</v>
       </c>
@@ -1594,20 +1642,20 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="18">
+      <c r="B16" s="13">
         <v>4</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="29">
         <f t="shared" si="1"/>
         <v>-2000000</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="33">
+      <c r="E16" s="29">
         <f>$F$4*H16</f>
         <v>-2400000</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="22">
+      <c r="G16" s="21">
         <f t="shared" si="2"/>
         <v>7200000</v>
       </c>
@@ -1629,20 +1677,20 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="18">
+      <c r="B17" s="13">
         <v>5</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="29">
         <f t="shared" si="1"/>
         <v>-2000000</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="33">
-        <f t="shared" ref="E14:E18" si="6">$F$4*H17</f>
+      <c r="E17" s="29">
+        <f t="shared" ref="E17" si="6">$F$4*H17</f>
         <v>-2400000</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="22">
+      <c r="G17" s="21">
         <f t="shared" si="2"/>
         <v>7200000</v>
       </c>
@@ -1664,23 +1712,23 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="18">
+      <c r="B18" s="13">
         <v>6</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="29">
         <f t="shared" si="1"/>
         <v>-2000000</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="33">
+      <c r="E18" s="29">
         <f>$F$4*H18</f>
         <v>-2400000</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="29">
         <f>F5</f>
         <v>40000</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="21">
         <f>H18*$J$3</f>
         <v>7200000</v>
       </c>
@@ -1708,47 +1756,47 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="K22" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="34">
+      <c r="M22" s="30">
         <f>NPV(J6,K24:K29)</f>
         <v>3055979.2628655988</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="18">
+      <c r="B23" s="13">
         <v>0</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="33">
+      <c r="D23" s="29">
         <f>$G$7</f>
         <v>-1200000</v>
       </c>
@@ -1768,29 +1816,29 @@
       <c r="L23" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="34">
+      <c r="M23" s="30">
         <f>M22+K23</f>
         <v>1855979.2628655988</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="18">
+      <c r="B24" s="13">
         <v>1</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="29">
         <f>$G$3</f>
         <v>-1200000</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="33">
+      <c r="E24" s="29">
         <f>$G$4*H24</f>
         <v>-620000</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="29">
         <f>$G$5</f>
         <v>0</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="21">
         <f>H24*$J$3</f>
         <v>1800000</v>
       </c>
@@ -1812,24 +1860,24 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="18">
+      <c r="B25" s="13">
         <v>2</v>
       </c>
-      <c r="C25" s="33">
-        <f t="shared" ref="C25:C29" si="8">$G$3</f>
+      <c r="C25" s="29">
+        <f t="shared" ref="C25:C26" si="8">$G$3</f>
         <v>-1200000</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="33">
-        <f t="shared" ref="E25:E29" si="9">$G$4*H25</f>
+      <c r="E25" s="29">
+        <f t="shared" ref="E25:E26" si="9">$G$4*H25</f>
         <v>-930000</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="29">
         <f t="shared" ref="F25:F29" si="10">$G$5</f>
         <v>0</v>
       </c>
-      <c r="G25" s="22">
-        <f t="shared" ref="G25:G29" si="11">H25*$J$3</f>
+      <c r="G25" s="21">
+        <f t="shared" ref="G25:G28" si="11">H25*$J$3</f>
         <v>2700000</v>
       </c>
       <c r="H25" s="15">
@@ -1850,26 +1898,26 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="18">
+      <c r="B26" s="13">
         <v>3</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="29">
         <f t="shared" si="8"/>
         <v>-1200000</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="29">
         <f>$G$7*2</f>
         <v>-2400000</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="29">
         <f t="shared" si="9"/>
         <v>-1550000</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="29">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="21">
         <f t="shared" si="11"/>
         <v>4500000</v>
       </c>
@@ -1886,27 +1934,27 @@
         <v>0</v>
       </c>
       <c r="K26" s="16">
-        <f t="shared" ref="K25:K29" si="13">J26+I26</f>
+        <f t="shared" ref="K26:K29" si="13">J26+I26</f>
         <v>-650000</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="18">
+      <c r="B27" s="13">
         <v>4</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="29">
         <f>$G$3*2</f>
         <v>-2400000</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="29">
         <f>$G$4*H27</f>
         <v>-2480000</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="29">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="21">
         <f t="shared" si="11"/>
         <v>7200000</v>
       </c>
@@ -1919,7 +1967,7 @@
         <v>2320000</v>
       </c>
       <c r="J27" s="16">
-        <f t="shared" ref="J25:J29" si="14">MIN(0,I27*$J$4*-1)</f>
+        <f t="shared" ref="J27:J29" si="14">MIN(0,I27*$J$4*-1)</f>
         <v>-464000</v>
       </c>
       <c r="K27" s="16">
@@ -1928,23 +1976,23 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="18">
+      <c r="B28" s="13">
         <v>5</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="29">
         <f t="shared" ref="C28:C29" si="15">$G$3*2</f>
         <v>-2400000</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="33">
+      <c r="E28" s="29">
         <f>$G$4*H28</f>
         <v>-2480000</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="29">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="21">
         <f t="shared" si="11"/>
         <v>7200000</v>
       </c>
@@ -1966,23 +2014,23 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="18">
+      <c r="B29" s="13">
         <v>6</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="29">
         <f t="shared" si="15"/>
         <v>-2400000</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="33">
+      <c r="E29" s="29">
         <f>$G$4*H29</f>
         <v>-2480000</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="29">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="21">
         <f>H29*$J$3</f>
         <v>7200000</v>
       </c>
@@ -2016,6 +2064,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E931C7-2A46-4E08-8D57-C960FC8CA70E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB1DD7-39B3-4B02-8727-4912941BB3F7}">
   <dimension ref="B2:J30"/>
   <sheetViews>
@@ -2038,13 +2098,13 @@
       <c r="C2" s="16">
         <v>-12000</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="33" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2058,7 +2118,7 @@
       <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="32">
         <v>-550</v>
       </c>
       <c r="F3" s="12">
@@ -2078,7 +2138,7 @@
       <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="32">
         <v>-800</v>
       </c>
       <c r="F4" s="12">
@@ -2098,7 +2158,7 @@
       <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="32">
         <v>-1500</v>
       </c>
       <c r="F5" s="12">
@@ -2118,7 +2178,7 @@
       <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="32">
         <v>-2500</v>
       </c>
       <c r="F6" s="12">
@@ -2156,13 +2216,13 @@
       <c r="B10" s="2">
         <v>0</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="29">
         <f>C2</f>
         <v>-12000</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="33">
+      <c r="G10" s="29">
         <f>SUM(C10:F10)</f>
         <v>-12000</v>
       </c>
@@ -2175,19 +2235,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="33">
+      <c r="D11" s="29">
         <f>$C$4</f>
         <v>-20000</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="29">
         <f>$C$5</f>
         <v>-450</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="29">
         <f>$E$3</f>
         <v>-550</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="29">
         <f t="shared" ref="G11:G30" si="0">SUM(C11:F11)</f>
         <v>-21000</v>
       </c>
@@ -2204,19 +2264,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="33">
+      <c r="D12" s="29">
         <f t="shared" ref="D12:D30" si="1">$C$4</f>
         <v>-20000</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="29">
         <f t="shared" ref="E12:E30" si="2">$C$5</f>
         <v>-450</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="29">
         <f t="shared" ref="F12:F15" si="3">$E$3</f>
         <v>-550</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="29">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
@@ -2233,19 +2293,19 @@
         <v>3</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="33">
+      <c r="D13" s="29">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="29">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="29">
         <f t="shared" si="3"/>
         <v>-550</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="29">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
@@ -2262,19 +2322,19 @@
         <v>4</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="33">
+      <c r="D14" s="29">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="29">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="29">
         <f t="shared" si="3"/>
         <v>-550</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="29">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
@@ -2284,19 +2344,19 @@
         <v>5</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="33">
+      <c r="D15" s="29">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="29">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="29">
         <f t="shared" si="3"/>
         <v>-550</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="29">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
@@ -2309,19 +2369,19 @@
         <v>6</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="33">
+      <c r="D16" s="29">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="29">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="29">
         <f>$E$4</f>
         <v>-800</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="29">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
@@ -2338,19 +2398,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="33">
+      <c r="D17" s="29">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="29">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="29">
         <f t="shared" ref="F17:F20" si="4">$E$4</f>
         <v>-800</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="29">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
@@ -2367,19 +2427,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="33">
+      <c r="D18" s="29">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="29">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="29">
         <f t="shared" si="4"/>
         <v>-800</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="29">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
@@ -2396,19 +2456,19 @@
         <v>9</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="33">
+      <c r="D19" s="29">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="29">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="29">
         <f t="shared" si="4"/>
         <v>-800</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="29">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
@@ -2418,19 +2478,19 @@
         <v>10</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="33">
+      <c r="D20" s="29">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="29">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="29">
         <f t="shared" si="4"/>
         <v>-800</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="29">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
@@ -2443,19 +2503,19 @@
         <v>11</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="33">
+      <c r="D21" s="29">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="29">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="29">
         <f>$E$5</f>
         <v>-1500</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="29">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
@@ -2472,19 +2532,19 @@
         <v>12</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="33">
+      <c r="D22" s="29">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="29">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="29">
         <f t="shared" ref="F22:F25" si="5">$E$5</f>
         <v>-1500</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="29">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
@@ -2501,19 +2561,19 @@
         <v>13</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="33">
+      <c r="D23" s="29">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="29">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="29">
         <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="29">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
@@ -2530,19 +2590,19 @@
         <v>14</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="33">
+      <c r="D24" s="29">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="29">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="29">
         <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="29">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
@@ -2552,19 +2612,19 @@
         <v>15</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="33">
+      <c r="D25" s="29">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="29">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="29">
         <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="29">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
@@ -2577,19 +2637,19 @@
         <v>16</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="33">
+      <c r="D26" s="29">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="29">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="29">
         <f>$E$6</f>
         <v>-2500</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="29">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
@@ -2606,19 +2666,19 @@
         <v>17</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="33">
+      <c r="D27" s="29">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="29">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="29">
         <f t="shared" ref="F27:F30" si="6">$E$6</f>
         <v>-2500</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="29">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
@@ -2635,19 +2695,19 @@
         <v>18</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="33">
+      <c r="D28" s="29">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="29">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="29">
         <f t="shared" si="6"/>
         <v>-2500</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="29">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
@@ -2664,19 +2724,19 @@
         <v>19</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="33">
+      <c r="D29" s="29">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="29">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="29">
         <f t="shared" si="6"/>
         <v>-2500</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="29">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
@@ -2686,19 +2746,19 @@
         <v>20</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="33">
+      <c r="D30" s="29">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="29">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="29">
         <f t="shared" si="6"/>
         <v>-2500</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="29">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
@@ -2709,7 +2769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3719ECC-99D3-421D-96A2-DB3C0A57A488}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2721,12 +2781,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192610D1-0A17-4CF5-883E-744262988952}">
   <dimension ref="B3:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -2742,7 +2802,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -2784,12 +2844,12 @@
       <c r="G4" s="16">
         <v>600000</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="29">
         <f>SUM(C4:G4)</f>
         <v>-500000</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="33">
+      <c r="J4" s="29">
         <f>H4+I4</f>
         <v>-500000</v>
       </c>
@@ -2807,19 +2867,19 @@
       <c r="F5" s="16">
         <v>950000</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="34">
         <f>G9</f>
         <v>-369069.76744186052</v>
       </c>
-      <c r="H5" s="33">
-        <f t="shared" ref="H5:H6" si="0">SUM(C5:G5)</f>
+      <c r="H5" s="29">
+        <f t="shared" ref="H5" si="0">SUM(C5:G5)</f>
         <v>520930.23255813948</v>
       </c>
       <c r="I5" s="16">
         <f>MIN(0,I8*H5*-1)</f>
         <v>-130232.55813953487</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="29">
         <f>I5+H5</f>
         <v>390697.67441860458</v>
       </c>
@@ -2839,11 +2899,11 @@
       <c r="F6" s="16">
         <v>950000</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="34">
         <f>G9</f>
         <v>-369069.76744186052</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="29">
         <f>SUM(C6:G6)</f>
         <v>850930.23255813948</v>
       </c>
@@ -2851,7 +2911,7 @@
         <f>MIN(0,I8*H6*-1)</f>
         <v>-212732.55813953487</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="29">
         <f>I6+H6</f>
         <v>638197.67441860458</v>
       </c>
@@ -2859,15 +2919,11 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F8" s="2" t="s">
@@ -2876,7 +2932,7 @@
       <c r="G8" s="9">
         <v>0.15</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>60</v>
       </c>
       <c r="I8" s="9">
@@ -2907,4 +2963,1307 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8B6E5E-B40B-4DFD-8527-0B850A34FCBC}">
+  <dimension ref="B2:H78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="40">
+        <v>-11999</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="42"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="38">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="39">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="e">
+        <f>IPMT($C$4,C6,$C$3,$G$6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" s="16" t="e">
+        <f>PPMT($C$4,C6,$C$3,$G$6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="30">
+        <f>PV(C4,C3,C2)</f>
+        <v>130193.06443371992</v>
+      </c>
+      <c r="H6" s="30">
+        <f>G6*2</f>
+        <v>260386.12886743984</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="39">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" ref="D7:D70" si="0">IPMT($C$4,C7,$C$3,$G$6)</f>
+        <v>-11977.761927902233</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" ref="E7:E70" si="1">PPMT($C$4,C7,$C$3,$G$6)</f>
+        <v>-21.23807209776718</v>
+      </c>
+      <c r="F7" s="29">
+        <f>$C$2</f>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="39">
+        <v>2</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" si="0"/>
+        <v>-11975.808025269238</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="1"/>
+        <v>-23.191974730761746</v>
+      </c>
+      <c r="F8" s="29">
+        <f t="shared" ref="F8:F71" si="2">$C$2</f>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="39">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="0"/>
+        <v>-11973.674363594007</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="1"/>
+        <v>-25.325636405991837</v>
+      </c>
+      <c r="F9" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="39">
+        <v>4</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
+        <v>-11971.344405044658</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="1"/>
+        <v>-27.655594955343076</v>
+      </c>
+      <c r="F10" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="39">
+        <v>5</v>
+      </c>
+      <c r="D11" s="16">
+        <f t="shared" si="0"/>
+        <v>-11968.800090308763</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="1"/>
+        <v>-30.199909691234655</v>
+      </c>
+      <c r="F11" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="39">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16">
+        <f t="shared" si="0"/>
+        <v>-11966.021698617171</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="1"/>
+        <v>-32.978301382828228</v>
+      </c>
+      <c r="F12" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="39">
+        <v>7</v>
+      </c>
+      <c r="D13" s="16">
+        <f t="shared" si="0"/>
+        <v>-11962.987694889951</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="1"/>
+        <v>-36.012305110048437</v>
+      </c>
+      <c r="F13" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="39">
+        <v>8</v>
+      </c>
+      <c r="D14" s="16">
+        <f t="shared" si="0"/>
+        <v>-11959.674562819826</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="1"/>
+        <v>-39.325437180172877</v>
+      </c>
+      <c r="F14" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="39">
+        <v>9</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="0"/>
+        <v>-11956.056622599252</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="1"/>
+        <v>-42.943377400748794</v>
+      </c>
+      <c r="F15" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="39">
+        <v>10</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="0"/>
+        <v>-11952.105831878382</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="1"/>
+        <v>-46.894168121617717</v>
+      </c>
+      <c r="F16" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="39">
+        <v>11</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="0"/>
+        <v>-11947.791568411192</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="1"/>
+        <v>-51.208431588806512</v>
+      </c>
+      <c r="F17" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="39">
+        <v>12</v>
+      </c>
+      <c r="D18" s="16">
+        <f t="shared" si="0"/>
+        <v>-11943.080392705022</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="1"/>
+        <v>-55.919607294976743</v>
+      </c>
+      <c r="F18" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="39">
+        <v>13</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" si="0"/>
+        <v>-11937.935788833885</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="1"/>
+        <v>-61.064211166114568</v>
+      </c>
+      <c r="F19" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="39">
+        <v>14</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="0"/>
+        <v>-11932.317881406601</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="1"/>
+        <v>-66.682118593397149</v>
+      </c>
+      <c r="F20" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="39">
+        <v>15</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" si="0"/>
+        <v>-11926.183126496011</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="1"/>
+        <v>-72.81687350398964</v>
+      </c>
+      <c r="F21" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="39">
+        <v>16</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" si="0"/>
+        <v>-11919.483974133644</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="1"/>
+        <v>-79.516025866356728</v>
+      </c>
+      <c r="F22" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="39">
+        <v>17</v>
+      </c>
+      <c r="D23" s="16">
+        <f t="shared" si="0"/>
+        <v>-11912.168499753938</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="1"/>
+        <v>-86.831500246061509</v>
+      </c>
+      <c r="F23" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="39">
+        <v>18</v>
+      </c>
+      <c r="D24" s="16">
+        <f t="shared" si="0"/>
+        <v>-11904.1800017313</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="1"/>
+        <v>-94.819998268699223</v>
+      </c>
+      <c r="F24" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="39">
+        <v>19</v>
+      </c>
+      <c r="D25" s="16">
+        <f t="shared" si="0"/>
+        <v>-11895.45656189058</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" si="1"/>
+        <v>-103.54343810941948</v>
+      </c>
+      <c r="F25" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="39">
+        <v>20</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" si="0"/>
+        <v>-11885.930565584513</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" si="1"/>
+        <v>-113.06943441548611</v>
+      </c>
+      <c r="F26" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="39">
+        <v>21</v>
+      </c>
+      <c r="D27" s="16">
+        <f t="shared" si="0"/>
+        <v>-11875.528177618289</v>
+      </c>
+      <c r="E27" s="16">
+        <f t="shared" si="1"/>
+        <v>-123.47182238171079</v>
+      </c>
+      <c r="F27" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="39">
+        <v>22</v>
+      </c>
+      <c r="D28" s="16">
+        <f t="shared" si="0"/>
+        <v>-11864.168769959171</v>
+      </c>
+      <c r="E28" s="16">
+        <f t="shared" si="1"/>
+        <v>-134.83123004082825</v>
+      </c>
+      <c r="F28" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="39">
+        <v>23</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" si="0"/>
+        <v>-11851.764296795414</v>
+      </c>
+      <c r="E29" s="16">
+        <f t="shared" si="1"/>
+        <v>-147.23570320458438</v>
+      </c>
+      <c r="F29" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="39">
+        <v>24</v>
+      </c>
+      <c r="D30" s="16">
+        <f t="shared" si="0"/>
+        <v>-11838.218612100593</v>
+      </c>
+      <c r="E30" s="16">
+        <f t="shared" si="1"/>
+        <v>-160.78138789940621</v>
+      </c>
+      <c r="F30" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C31" s="39">
+        <v>25</v>
+      </c>
+      <c r="D31" s="16">
+        <f t="shared" si="0"/>
+        <v>-11823.426724413848</v>
+      </c>
+      <c r="E31" s="16">
+        <f t="shared" si="1"/>
+        <v>-175.57327558615151</v>
+      </c>
+      <c r="F31" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="39">
+        <v>26</v>
+      </c>
+      <c r="D32" s="16">
+        <f t="shared" si="0"/>
+        <v>-11807.273983059922</v>
+      </c>
+      <c r="E32" s="16">
+        <f t="shared" si="1"/>
+        <v>-191.7260169400775</v>
+      </c>
+      <c r="F32" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="39">
+        <v>27</v>
+      </c>
+      <c r="D33" s="16">
+        <f t="shared" si="0"/>
+        <v>-11789.635189501436</v>
+      </c>
+      <c r="E33" s="16">
+        <f t="shared" si="1"/>
+        <v>-209.36481049856454</v>
+      </c>
+      <c r="F33" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" s="39">
+        <v>28</v>
+      </c>
+      <c r="D34" s="16">
+        <f t="shared" si="0"/>
+        <v>-11770.373626935567</v>
+      </c>
+      <c r="E34" s="16">
+        <f t="shared" si="1"/>
+        <v>-228.62637306443261</v>
+      </c>
+      <c r="F34" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35" s="39">
+        <v>29</v>
+      </c>
+      <c r="D35" s="16">
+        <f t="shared" si="0"/>
+        <v>-11749.340000613638</v>
+      </c>
+      <c r="E35" s="16">
+        <f t="shared" si="1"/>
+        <v>-249.65999938636043</v>
+      </c>
+      <c r="F35" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="39">
+        <v>30</v>
+      </c>
+      <c r="D36" s="16">
+        <f t="shared" si="0"/>
+        <v>-11726.371280670093</v>
+      </c>
+      <c r="E36" s="16">
+        <f t="shared" si="1"/>
+        <v>-272.62871932990549</v>
+      </c>
+      <c r="F36" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37" s="39">
+        <v>31</v>
+      </c>
+      <c r="D37" s="16">
+        <f t="shared" si="0"/>
+        <v>-11701.289438491742</v>
+      </c>
+      <c r="E37" s="16">
+        <f t="shared" si="1"/>
+        <v>-297.71056150825689</v>
+      </c>
+      <c r="F37" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C38" s="39">
+        <v>32</v>
+      </c>
+      <c r="D38" s="16">
+        <f t="shared" si="0"/>
+        <v>-11673.900066832983</v>
+      </c>
+      <c r="E38" s="16">
+        <f t="shared" si="1"/>
+        <v>-325.0999331670165</v>
+      </c>
+      <c r="F38" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C39" s="39">
+        <v>33</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="0"/>
+        <v>-11643.990872981616</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="1"/>
+        <v>-355.009127018382</v>
+      </c>
+      <c r="F39" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C40" s="39">
+        <v>34</v>
+      </c>
+      <c r="D40" s="16">
+        <f t="shared" si="0"/>
+        <v>-11611.330033295926</v>
+      </c>
+      <c r="E40" s="16">
+        <f t="shared" si="1"/>
+        <v>-387.66996670407309</v>
+      </c>
+      <c r="F40" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="39">
+        <v>35</v>
+      </c>
+      <c r="D41" s="16">
+        <f t="shared" si="0"/>
+        <v>-11575.664396359152</v>
+      </c>
+      <c r="E41" s="16">
+        <f t="shared" si="1"/>
+        <v>-423.33560364084786</v>
+      </c>
+      <c r="F41" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="39">
+        <v>36</v>
+      </c>
+      <c r="D42" s="16">
+        <f t="shared" si="0"/>
+        <v>-11536.717520824193</v>
+      </c>
+      <c r="E42" s="16">
+        <f t="shared" si="1"/>
+        <v>-462.28247917580586</v>
+      </c>
+      <c r="F42" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C43" s="39">
+        <v>37</v>
+      </c>
+      <c r="D43" s="16">
+        <f t="shared" si="0"/>
+        <v>-11494.187532740019</v>
+      </c>
+      <c r="E43" s="16">
+        <f t="shared" si="1"/>
+        <v>-504.81246725998</v>
+      </c>
+      <c r="F43" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C44" s="39">
+        <v>38</v>
+      </c>
+      <c r="D44" s="16">
+        <f t="shared" si="0"/>
+        <v>-11447.744785752102</v>
+      </c>
+      <c r="E44" s="16">
+        <f t="shared" si="1"/>
+        <v>-551.25521424789815</v>
+      </c>
+      <c r="F44" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C45" s="39">
+        <v>39</v>
+      </c>
+      <c r="D45" s="16">
+        <f t="shared" si="0"/>
+        <v>-11397.029306041293</v>
+      </c>
+      <c r="E45" s="16">
+        <f t="shared" si="1"/>
+        <v>-601.97069395870471</v>
+      </c>
+      <c r="F45" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C46" s="39">
+        <v>40</v>
+      </c>
+      <c r="D46" s="16">
+        <f t="shared" si="0"/>
+        <v>-11341.648002197093</v>
+      </c>
+      <c r="E46" s="16">
+        <f t="shared" si="1"/>
+        <v>-657.35199780290566</v>
+      </c>
+      <c r="F46" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C47" s="39">
+        <v>41</v>
+      </c>
+      <c r="D47" s="16">
+        <f t="shared" si="0"/>
+        <v>-11281.171618399227</v>
+      </c>
+      <c r="E47" s="16">
+        <f t="shared" si="1"/>
+        <v>-717.8283816007729</v>
+      </c>
+      <c r="F47" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C48" s="39">
+        <v>42</v>
+      </c>
+      <c r="D48" s="16">
+        <f t="shared" si="0"/>
+        <v>-11215.131407291956</v>
+      </c>
+      <c r="E48" s="16">
+        <f t="shared" si="1"/>
+        <v>-783.86859270804393</v>
+      </c>
+      <c r="F48" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49" s="39">
+        <v>43</v>
+      </c>
+      <c r="D49" s="16">
+        <f t="shared" si="0"/>
+        <v>-11143.015496762815</v>
+      </c>
+      <c r="E49" s="16">
+        <f t="shared" si="1"/>
+        <v>-855.98450323718407</v>
+      </c>
+      <c r="F49" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C50" s="39">
+        <v>44</v>
+      </c>
+      <c r="D50" s="16">
+        <f t="shared" si="0"/>
+        <v>-11064.264922464996</v>
+      </c>
+      <c r="E50" s="16">
+        <f t="shared" si="1"/>
+        <v>-934.73507753500508</v>
+      </c>
+      <c r="F50" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C51" s="39">
+        <v>45</v>
+      </c>
+      <c r="D51" s="16">
+        <f t="shared" si="0"/>
+        <v>-10978.269295331775</v>
+      </c>
+      <c r="E51" s="16">
+        <f t="shared" si="1"/>
+        <v>-1020.7307046682253</v>
+      </c>
+      <c r="F51" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C52" s="39">
+        <v>46</v>
+      </c>
+      <c r="D52" s="16">
+        <f t="shared" si="0"/>
+        <v>-10884.362070502297</v>
+      </c>
+      <c r="E52" s="16">
+        <f t="shared" si="1"/>
+        <v>-1114.6379294977021</v>
+      </c>
+      <c r="F52" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C53" s="39">
+        <v>47</v>
+      </c>
+      <c r="D53" s="16">
+        <f t="shared" si="0"/>
+        <v>-10781.815380988508</v>
+      </c>
+      <c r="E53" s="16">
+        <f t="shared" si="1"/>
+        <v>-1217.1846190114907</v>
+      </c>
+      <c r="F53" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C54" s="39">
+        <v>48</v>
+      </c>
+      <c r="D54" s="16">
+        <f t="shared" si="0"/>
+        <v>-10669.83439603945</v>
+      </c>
+      <c r="E54" s="16">
+        <f t="shared" si="1"/>
+        <v>-1329.165603960548</v>
+      </c>
+      <c r="F54" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C55" s="39">
+        <v>49</v>
+      </c>
+      <c r="D55" s="16">
+        <f t="shared" si="0"/>
+        <v>-10547.551160475081</v>
+      </c>
+      <c r="E55" s="16">
+        <f t="shared" si="1"/>
+        <v>-1451.4488395249182</v>
+      </c>
+      <c r="F55" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C56" s="39">
+        <v>50</v>
+      </c>
+      <c r="D56" s="16">
+        <f t="shared" si="0"/>
+        <v>-10414.017867238788</v>
+      </c>
+      <c r="E56" s="16">
+        <f t="shared" si="1"/>
+        <v>-1584.9821327612108</v>
+      </c>
+      <c r="F56" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C57" s="39">
+        <v>51</v>
+      </c>
+      <c r="D57" s="16">
+        <f t="shared" si="0"/>
+        <v>-10268.199511024757</v>
+      </c>
+      <c r="E57" s="16">
+        <f t="shared" si="1"/>
+        <v>-1730.8004889752424</v>
+      </c>
+      <c r="F57" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C58" s="39">
+        <v>52</v>
+      </c>
+      <c r="D58" s="16">
+        <f t="shared" si="0"/>
+        <v>-10108.965866039034</v>
+      </c>
+      <c r="E58" s="16">
+        <f t="shared" si="1"/>
+        <v>-1890.0341339609649</v>
+      </c>
+      <c r="F58" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C59" s="39">
+        <v>53</v>
+      </c>
+      <c r="D59" s="16">
+        <f t="shared" si="0"/>
+        <v>-9935.0827257146266</v>
+      </c>
+      <c r="E59" s="16">
+        <f t="shared" si="1"/>
+        <v>-2063.9172742853734</v>
+      </c>
+      <c r="F59" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C60" s="39">
+        <v>54</v>
+      </c>
+      <c r="D60" s="16">
+        <f t="shared" si="0"/>
+        <v>-9745.2023364803736</v>
+      </c>
+      <c r="E60" s="16">
+        <f t="shared" si="1"/>
+        <v>-2253.7976635196278</v>
+      </c>
+      <c r="F60" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C61" s="39">
+        <v>55</v>
+      </c>
+      <c r="D61" s="16">
+        <f t="shared" si="0"/>
+        <v>-9537.8529514365673</v>
+      </c>
+      <c r="E61" s="16">
+        <f t="shared" si="1"/>
+        <v>-2461.1470485634336</v>
+      </c>
+      <c r="F61" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C62" s="39">
+        <v>56</v>
+      </c>
+      <c r="D62" s="16">
+        <f t="shared" si="0"/>
+        <v>-9311.4274229687308</v>
+      </c>
+      <c r="E62" s="16">
+        <f t="shared" si="1"/>
+        <v>-2687.5725770312692</v>
+      </c>
+      <c r="F62" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C63" s="39">
+        <v>57</v>
+      </c>
+      <c r="D63" s="16">
+        <f t="shared" si="0"/>
+        <v>-9064.1707458818528</v>
+      </c>
+      <c r="E63" s="16">
+        <f t="shared" si="1"/>
+        <v>-2934.8292541181459</v>
+      </c>
+      <c r="F63" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C64" s="39">
+        <v>58</v>
+      </c>
+      <c r="D64" s="16">
+        <f t="shared" si="0"/>
+        <v>-8794.1664545029835</v>
+      </c>
+      <c r="E64" s="16">
+        <f t="shared" si="1"/>
+        <v>-3204.8335454970152</v>
+      </c>
+      <c r="F64" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C65" s="39">
+        <v>59</v>
+      </c>
+      <c r="D65" s="16">
+        <f t="shared" si="0"/>
+        <v>-8499.3217683172588</v>
+      </c>
+      <c r="E65" s="16">
+        <f t="shared" si="1"/>
+        <v>-3499.6782316827403</v>
+      </c>
+      <c r="F65" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C66" s="39">
+        <v>60</v>
+      </c>
+      <c r="D66" s="16">
+        <f t="shared" si="0"/>
+        <v>-8177.3513710024463</v>
+      </c>
+      <c r="E66" s="16">
+        <f t="shared" si="1"/>
+        <v>-3821.6486289975528</v>
+      </c>
+      <c r="F66" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C67" s="39">
+        <v>61</v>
+      </c>
+      <c r="D67" s="16">
+        <f t="shared" si="0"/>
+        <v>-7825.7596971346711</v>
+      </c>
+      <c r="E67" s="16">
+        <f t="shared" si="1"/>
+        <v>-4173.240302865328</v>
+      </c>
+      <c r="F67" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C68" s="39">
+        <v>62</v>
+      </c>
+      <c r="D68" s="16">
+        <f t="shared" si="0"/>
+        <v>-7441.8215892710605</v>
+      </c>
+      <c r="E68" s="16">
+        <f t="shared" si="1"/>
+        <v>-4557.1784107289386</v>
+      </c>
+      <c r="F68" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C69" s="39">
+        <v>63</v>
+      </c>
+      <c r="D69" s="16">
+        <f t="shared" si="0"/>
+        <v>-7022.5611754839992</v>
+      </c>
+      <c r="E69" s="16">
+        <f t="shared" si="1"/>
+        <v>-4976.4388245160008</v>
+      </c>
+      <c r="F69" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C70" s="39">
+        <v>64</v>
+      </c>
+      <c r="D70" s="16">
+        <f t="shared" si="0"/>
+        <v>-6564.7288036285263</v>
+      </c>
+      <c r="E70" s="16">
+        <f t="shared" si="1"/>
+        <v>-5434.2711963714728</v>
+      </c>
+      <c r="F70" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C71" s="39">
+        <v>65</v>
+      </c>
+      <c r="D71" s="16">
+        <f t="shared" ref="D71:D78" si="3">IPMT($C$4,C71,$C$3,$G$6)</f>
+        <v>-6064.7758535623516</v>
+      </c>
+      <c r="E71" s="16">
+        <f t="shared" ref="E71:E78" si="4">PPMT($C$4,C71,$C$3,$G$6)</f>
+        <v>-5934.2241464376484</v>
+      </c>
+      <c r="F71" s="29">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C72" s="39">
+        <v>66</v>
+      </c>
+      <c r="D72" s="16">
+        <f t="shared" si="3"/>
+        <v>-5518.8272320900878</v>
+      </c>
+      <c r="E72" s="16">
+        <f t="shared" si="4"/>
+        <v>-6480.1727679099113</v>
+      </c>
+      <c r="F72" s="29">
+        <f t="shared" ref="F72:F78" si="5">$C$2</f>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C73" s="39">
+        <v>67</v>
+      </c>
+      <c r="D73" s="16">
+        <f t="shared" si="3"/>
+        <v>-4922.6513374423757</v>
+      </c>
+      <c r="E73" s="16">
+        <f t="shared" si="4"/>
+        <v>-7076.3486625576234</v>
+      </c>
+      <c r="F73" s="29">
+        <f t="shared" si="5"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C74" s="39">
+        <v>68</v>
+      </c>
+      <c r="D74" s="16">
+        <f t="shared" si="3"/>
+        <v>-4271.6272604870737</v>
+      </c>
+      <c r="E74" s="16">
+        <f t="shared" si="4"/>
+        <v>-7727.3727395129254</v>
+      </c>
+      <c r="F74" s="29">
+        <f t="shared" si="5"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C75" s="39">
+        <v>69</v>
+      </c>
+      <c r="D75" s="16">
+        <f t="shared" si="3"/>
+        <v>-3560.7089684518855</v>
+      </c>
+      <c r="E75" s="16">
+        <f t="shared" si="4"/>
+        <v>-8438.2910315481149</v>
+      </c>
+      <c r="F75" s="29">
+        <f t="shared" si="5"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C76" s="39">
+        <v>70</v>
+      </c>
+      <c r="D76" s="16">
+        <f t="shared" si="3"/>
+        <v>-2784.3861935494588</v>
+      </c>
+      <c r="E76" s="16">
+        <f t="shared" si="4"/>
+        <v>-9214.6138064505412</v>
+      </c>
+      <c r="F76" s="29">
+        <f t="shared" si="5"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C77" s="39">
+        <v>71</v>
+      </c>
+      <c r="D77" s="16">
+        <f t="shared" si="3"/>
+        <v>-1936.6417233560089</v>
+      </c>
+      <c r="E77" s="16">
+        <f t="shared" si="4"/>
+        <v>-10062.35827664399</v>
+      </c>
+      <c r="F77" s="29">
+        <f t="shared" si="5"/>
+        <v>-11999</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C78" s="39">
+        <v>72</v>
+      </c>
+      <c r="D78" s="16">
+        <f t="shared" si="3"/>
+        <v>-1010.9047619047619</v>
+      </c>
+      <c r="E78" s="16">
+        <f t="shared" si="4"/>
+        <v>-10988.095238095239</v>
+      </c>
+      <c r="F78" s="29">
+        <f t="shared" si="5"/>
+        <v>-11999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Semestres/Proyectos de Inversión/Casos Finales/CASOS.xlsx
+++ b/Semestres/Proyectos de Inversión/Casos Finales/CASOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scago\Documents\GitHub\IA_School\Semestres\Proyectos de Inversión\Casos Finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7791FD9C-AAE0-4F03-B6CB-C9D66610A514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B69CCF-6AEF-4EC3-9429-AA36D6DA886D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" activeTab="6" xr2:uid="{DF7EAB89-8D33-4DCA-878B-1977CA593F3E}"/>
   </bookViews>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t xml:space="preserve">Reemplazo vieja maquinaria fresadora </t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>meses</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -636,10 +639,10 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2967,10 +2970,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8B6E5E-B40B-4DFD-8527-0B850A34FCBC}">
-  <dimension ref="B2:H78"/>
+  <dimension ref="B2:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -2979,7 +2982,7 @@
     <col min="4" max="5" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
@@ -2991,7 +2994,7 @@
       </c>
       <c r="E2" s="41"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>64</v>
       </c>
@@ -3001,9 +3004,8 @@
       <c r="D3" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="42"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
@@ -3013,9 +3015,17 @@
       <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="43"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C6" s="39">
         <v>0</v>
       </c>
@@ -3032,12 +3042,9 @@
         <f>PV(C4,C3,C2)</f>
         <v>130193.06443371992</v>
       </c>
-      <c r="H6" s="30">
-        <f>G6*2</f>
-        <v>260386.12886743984</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C7" s="39">
         <v>1</v>
       </c>
@@ -3054,7 +3061,7 @@
         <v>-11999</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C8" s="39">
         <v>2</v>
       </c>
@@ -3071,7 +3078,7 @@
         <v>-11999</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C9" s="39">
         <v>3</v>
       </c>
@@ -3087,8 +3094,9 @@
         <f t="shared" si="2"/>
         <v>-11999</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="30"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C10" s="39">
         <v>4</v>
       </c>
@@ -3105,7 +3113,7 @@
         <v>-11999</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C11" s="39">
         <v>5</v>
       </c>
@@ -3122,7 +3130,7 @@
         <v>-11999</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C12" s="39">
         <v>6</v>
       </c>
@@ -3139,7 +3147,7 @@
         <v>-11999</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C13" s="39">
         <v>7</v>
       </c>
@@ -3156,7 +3164,7 @@
         <v>-11999</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C14" s="39">
         <v>8</v>
       </c>
@@ -3173,7 +3181,7 @@
         <v>-11999</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C15" s="39">
         <v>9</v>
       </c>
@@ -3190,7 +3198,7 @@
         <v>-11999</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C16" s="39">
         <v>10</v>
       </c>

--- a/Semestres/Proyectos de Inversión/Casos Finales/CASOS.xlsx
+++ b/Semestres/Proyectos de Inversión/Casos Finales/CASOS.xlsx
@@ -5,21 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scago\Documents\GitHub\IA_School\Semestres\Proyectos de Inversión\Casos Finales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalor\Documents\Git\School\Other\Seventh Semester\Proyectos de Inversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B69CCF-6AEF-4EC3-9429-AA36D6DA886D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9679392B-6E40-491E-A495-7D29703C2458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" activeTab="6" xr2:uid="{DF7EAB89-8D33-4DCA-878B-1977CA593F3E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DF7EAB89-8D33-4DCA-878B-1977CA593F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Fresadora" sheetId="1" r:id="rId1"/>
     <sheet name="3. TVEO" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="6" r:id="rId3"/>
-    <sheet name="4. Cementera" sheetId="3" r:id="rId4"/>
-    <sheet name="5. " sheetId="4" r:id="rId5"/>
-    <sheet name="6. Camión de Volteo" sheetId="5" r:id="rId6"/>
-    <sheet name="7. Tesla" sheetId="7" r:id="rId7"/>
+    <sheet name="4. Cementera" sheetId="3" r:id="rId3"/>
+    <sheet name="5. " sheetId="4" r:id="rId4"/>
+    <sheet name="6. Camión de Volteo" sheetId="5" r:id="rId5"/>
+    <sheet name="7. Teslaaa" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,9 +28,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -182,9 +184,11 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sara Carolina Gómez Delgado</author>
+    <author>tc={EA6973FD-549B-4029-885C-45775B88A94A}</author>
+    <author>tc={4D3113BB-F6DA-4CC2-83FC-5F7E89744279}</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{3DE5AC38-2A8F-46D9-B110-D05902D48F59}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{27EB1DAD-23B9-43BE-B812-E56ABDAEAC44}">
       <text>
         <r>
           <rPr>
@@ -209,12 +213,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="I10" authorId="1" shapeId="0" xr:uid="{EA6973FD-549B-4029-885C-45775B88A94A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Este es el 50% del valor del carro</t>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="2" shapeId="0" xr:uid="{4D3113BB-F6DA-4CC2-83FC-5F7E89744279}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Esto es lo que pagamos de intereses de intereses al dia de hoy</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
   <si>
     <t xml:space="preserve">Reemplazo vieja maquinaria fresadora </t>
   </si>
@@ -411,13 +431,40 @@
     <t>Plazo</t>
   </si>
   <si>
-    <t>Tasa</t>
-  </si>
-  <si>
     <t>meses</t>
   </si>
   <si>
-    <t>m</t>
+    <t>i</t>
+  </si>
+  <si>
+    <t>ief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip </t>
+  </si>
+  <si>
+    <t>Pago capital</t>
+  </si>
+  <si>
+    <t>Pago intereses</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Presente deuda</t>
+  </si>
+  <si>
+    <t>Presente carro</t>
+  </si>
+  <si>
+    <t>Presente intereses</t>
+  </si>
+  <si>
+    <t>Pago con IVA</t>
   </si>
 </sst>
 </file>
@@ -562,11 +609,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -638,15 +686,22 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -661,8 +716,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Luis Eduardo Robles Jiménez" id="{CDFA87E3-1859-4884-B0B1-7A60EEA0A133}" userId="Luis Eduardo Robles Jiménez" providerId="None"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -956,15 +1017,26 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I10" dT="2022-11-15T18:37:43.45" personId="{CDFA87E3-1859-4884-B0B1-7A60EEA0A133}" id="{EA6973FD-549B-4029-885C-45775B88A94A}">
+    <text>Este es el 50% del valor del carro</text>
+  </threadedComment>
+  <threadedComment ref="J10" dT="2022-11-15T18:38:02.44" personId="{CDFA87E3-1859-4884-B0B1-7A60EEA0A133}" id="{4D3113BB-F6DA-4CC2-83FC-5F7E89744279}">
+    <text>Esto es lo que pagamos de intereses de intereses al dia de hoy</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F780256-FAFA-45AD-BD21-220A3A64CB91}">
   <dimension ref="B2:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
@@ -1036,7 +1108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" ht="15" x14ac:dyDescent="0.3">
       <c r="E6" s="13">
         <v>0</v>
       </c>
@@ -1063,7 +1135,7 @@
         <v>-80000</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" ht="15" x14ac:dyDescent="0.3">
       <c r="E7" s="13">
         <v>1</v>
       </c>
@@ -1094,7 +1166,7 @@
         <v>285000</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" ht="15" x14ac:dyDescent="0.3">
       <c r="E8" s="13">
         <v>2</v>
       </c>
@@ -1125,7 +1197,7 @@
         <v>286000</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" ht="15" x14ac:dyDescent="0.3">
       <c r="E9" s="13">
         <v>3</v>
       </c>
@@ -1156,7 +1228,7 @@
         <v>289000</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" ht="15" x14ac:dyDescent="0.3">
       <c r="E10" s="13">
         <v>4</v>
       </c>
@@ -1189,7 +1261,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" ht="15" x14ac:dyDescent="0.3">
       <c r="E11" s="13">
         <v>5</v>
       </c>
@@ -1209,7 +1281,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" ht="15" x14ac:dyDescent="0.3">
       <c r="E12" s="13">
         <v>6</v>
       </c>
@@ -1236,7 +1308,7 @@
         <v>910658.42497097177</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" ht="15" x14ac:dyDescent="0.3">
       <c r="P13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1245,7 +1317,7 @@
         <v>830658.42497097177</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" ht="15" x14ac:dyDescent="0.3">
       <c r="J14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1264,7 +1336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" ht="15" x14ac:dyDescent="0.3">
       <c r="J15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1273,7 +1345,7 @@
         <v>1080173.0519016841</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" ht="15" x14ac:dyDescent="0.3">
       <c r="J16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1297,15 +1369,15 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -2067,18 +2139,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E931C7-2A46-4E08-8D57-C960FC8CA70E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB1DD7-39B3-4B02-8727-4912941BB3F7}">
   <dimension ref="B2:J30"/>
   <sheetViews>
@@ -2086,12 +2146,13 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.21875" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
@@ -2772,19 +2833,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3719ECC-99D3-421D-96A2-DB3C0A57A488}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192610D1-0A17-4CF5-883E-744262988952}">
   <dimension ref="B3:K11"/>
   <sheetViews>
@@ -2792,7 +2853,7 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
@@ -2968,33 +3029,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8B6E5E-B40B-4DFD-8527-0B850A34FCBC}">
-  <dimension ref="B2:I78"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33222DB8-DDDF-4338-8B69-318A6255ED1A}">
+  <dimension ref="B2:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="39">
         <v>-11999</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="41"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>64</v>
       </c>
@@ -3002,12 +3066,12 @@
         <v>72</v>
       </c>
       <c r="D3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C4" s="38">
         <v>9.1999999999999998E-2</v>
@@ -3015,1259 +3079,2123 @@
       <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="42"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E4" s="41"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="44">
+        <f>EFFECT(C4,C6)</f>
+        <v>9.5980203157880473E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="39">
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="44">
+        <f>C5/C6</f>
+        <v>7.9983502631567061E-3</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J8" s="46"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="45"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J9" s="46"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="16" t="e">
-        <f>IPMT($C$4,C6,$C$3,$G$6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" s="16" t="e">
-        <f>PPMT($C$4,C6,$C$3,$G$6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="30">
-        <f>PV(C4,C3,C2)</f>
-        <v>130193.06443371992</v>
-      </c>
-      <c r="H6" s="30"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="39">
+      <c r="C11" s="2"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="H11" s="30">
+        <f>NPV(C7,D12:D83)</f>
+        <v>-654832.52962543443</v>
+      </c>
+      <c r="I11" s="30">
+        <f>NPV(C7,E12:E83)</f>
+        <v>-482959.36645717744</v>
+      </c>
+      <c r="J11" s="30">
+        <f>NPV(C7,F12:F83)</f>
+        <v>-171873.163168258</v>
+      </c>
+      <c r="K11" s="37"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="16">
-        <f t="shared" ref="D7:D70" si="0">IPMT($C$4,C7,$C$3,$G$6)</f>
-        <v>-11977.761927902233</v>
-      </c>
-      <c r="E7" s="16">
-        <f t="shared" ref="E7:E70" si="1">PPMT($C$4,C7,$C$3,$G$6)</f>
-        <v>-21.23807209776718</v>
-      </c>
-      <c r="F7" s="29">
-        <f>$C$2</f>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="39">
+      <c r="C12" s="49">
+        <f>D12*1.16</f>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D12" s="49">
+        <f t="shared" ref="D12:D75" si="0">$C$2</f>
+        <v>-11999</v>
+      </c>
+      <c r="E12" s="10">
+        <f>-PPMT($C$7,B12,$C$3,$H$11)</f>
+        <v>-6761.4200643468548</v>
+      </c>
+      <c r="F12" s="10">
+        <f>-IPMT($C$7,B12,$C$3,$H$11)</f>
+        <v>-5237.5799356531652</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="16">
-        <f t="shared" si="0"/>
-        <v>-11975.808025269238</v>
-      </c>
-      <c r="E8" s="16">
-        <f t="shared" si="1"/>
-        <v>-23.191974730761746</v>
-      </c>
-      <c r="F8" s="29">
-        <f t="shared" ref="F8:F71" si="2">$C$2</f>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="39">
+      <c r="C13" s="49">
+        <f t="shared" ref="C13:C76" si="1">D13*1.16</f>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D13" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E13" s="10">
+        <f>-PPMT($C$7,B13,$C$3,$H$11)</f>
+        <v>-6815.5002702978372</v>
+      </c>
+      <c r="F13" s="10">
+        <f>-IPMT($C$7,B13,$C$3,$H$11)</f>
+        <v>-5183.4997297021828</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="16">
-        <f t="shared" si="0"/>
-        <v>-11973.674363594007</v>
-      </c>
-      <c r="E9" s="16">
-        <f t="shared" si="1"/>
-        <v>-25.325636405991837</v>
-      </c>
-      <c r="F9" s="29">
+      <c r="C14" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D14" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E14" s="10">
+        <f>-PPMT($C$7,B14,$C$3,$H$11)</f>
+        <v>-6870.0130286783178</v>
+      </c>
+      <c r="F14" s="10">
+        <f>-IPMT($C$7,B14,$C$3,$H$11)</f>
+        <v>-5128.9869713217022</v>
+      </c>
+      <c r="J14" s="46"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D15" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E15" s="10">
+        <f>-PPMT($C$7,B15,$C$3,$H$11)</f>
+        <v>-6924.9617991941368</v>
+      </c>
+      <c r="F15" s="10">
+        <f>-IPMT($C$7,B15,$C$3,$H$11)</f>
+        <v>-5074.0382008058832</v>
+      </c>
+      <c r="J15" s="46"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D16" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E16" s="10">
+        <f>-PPMT($C$7,B16,$C$3,$H$11)</f>
+        <v>-6980.3500692230728</v>
+      </c>
+      <c r="F16" s="10">
+        <f>-IPMT($C$7,B16,$C$3,$H$11)</f>
+        <v>-5018.6499307769491</v>
+      </c>
+      <c r="J16" s="46"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>6</v>
+      </c>
+      <c r="C17" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D17" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E17" s="10">
+        <f>-PPMT($C$7,B17,$C$3,$H$11)</f>
+        <v>-7036.1813540361682</v>
+      </c>
+      <c r="F17" s="10">
+        <f>-IPMT($C$7,B17,$C$3,$H$11)</f>
+        <v>-4962.8186459638509</v>
+      </c>
+      <c r="J17" s="46"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>7</v>
+      </c>
+      <c r="C18" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D18" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E18" s="10">
+        <f>-PPMT($C$7,B18,$C$3,$H$11)</f>
+        <v>-7092.4591970208403</v>
+      </c>
+      <c r="F18" s="10">
+        <f>-IPMT($C$7,B18,$C$3,$H$11)</f>
+        <v>-4906.5408029791797</v>
+      </c>
+      <c r="J18" s="46"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>8</v>
+      </c>
+      <c r="C19" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D19" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E19" s="10">
+        <f>-PPMT($C$7,B19,$C$3,$H$11)</f>
+        <v>-7149.187169905761</v>
+      </c>
+      <c r="F19" s="10">
+        <f>-IPMT($C$7,B19,$C$3,$H$11)</f>
+        <v>-4849.8128300942581</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>9</v>
+      </c>
+      <c r="C20" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D20" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E20" s="10">
+        <f>-PPMT($C$7,B20,$C$3,$H$11)</f>
+        <v>-7206.3688729875339</v>
+      </c>
+      <c r="F20" s="10">
+        <f>-IPMT($C$7,B20,$C$3,$H$11)</f>
+        <v>-4792.6311270124861</v>
+      </c>
+      <c r="J20" s="46"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>10</v>
+      </c>
+      <c r="C21" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D21" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E21" s="10">
+        <f>-PPMT($C$7,B21,$C$3,$H$11)</f>
+        <v>-7264.0079353591982</v>
+      </c>
+      <c r="F21" s="10">
+        <f>-IPMT($C$7,B21,$C$3,$H$11)</f>
+        <v>-4734.9920646408218</v>
+      </c>
+      <c r="J21" s="46"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>11</v>
+      </c>
+      <c r="C22" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D22" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E22" s="10">
+        <f>-PPMT($C$7,B22,$C$3,$H$11)</f>
+        <v>-7322.1080151405504</v>
+      </c>
+      <c r="F22" s="10">
+        <f>-IPMT($C$7,B22,$C$3,$H$11)</f>
+        <v>-4676.8919848594696</v>
+      </c>
+      <c r="J22" s="46"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>12</v>
+      </c>
+      <c r="C23" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D23" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E23" s="10">
+        <f>-PPMT($C$7,B23,$C$3,$H$11)</f>
+        <v>-7380.6727997103117</v>
+      </c>
+      <c r="F23" s="10">
+        <f>-IPMT($C$7,B23,$C$3,$H$11)</f>
+        <v>-4618.3272002897083</v>
+      </c>
+      <c r="J23" s="46"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>13</v>
+      </c>
+      <c r="C24" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D24" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E24" s="10">
+        <f>-PPMT($C$7,B24,$C$3,$H$11)</f>
+        <v>-7439.7060059401474</v>
+      </c>
+      <c r="F24" s="10">
+        <f>-IPMT($C$7,B24,$C$3,$H$11)</f>
+        <v>-4559.2939940598735</v>
+      </c>
+      <c r="J24" s="46"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>14</v>
+      </c>
+      <c r="C25" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D25" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E25" s="10">
+        <f>-PPMT($C$7,B25,$C$3,$H$11)</f>
+        <v>-7499.2113804305673</v>
+      </c>
+      <c r="F25" s="10">
+        <f>-IPMT($C$7,B25,$C$3,$H$11)</f>
+        <v>-4499.7886195694518</v>
+      </c>
+      <c r="J25" s="46"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <v>15</v>
+      </c>
+      <c r="C26" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D26" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E26" s="10">
+        <f>-PPMT($C$7,B26,$C$3,$H$11)</f>
+        <v>-7559.1926997487035</v>
+      </c>
+      <c r="F26" s="10">
+        <f>-IPMT($C$7,B26,$C$3,$H$11)</f>
+        <v>-4439.8073002513174</v>
+      </c>
+      <c r="J26" s="46"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>16</v>
+      </c>
+      <c r="C27" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D27" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E27" s="10">
+        <f>-PPMT($C$7,B27,$C$3,$H$11)</f>
+        <v>-7619.6537706679901</v>
+      </c>
+      <c r="F27" s="10">
+        <f>-IPMT($C$7,B27,$C$3,$H$11)</f>
+        <v>-4379.3462293320308</v>
+      </c>
+      <c r="J27" s="46"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>17</v>
+      </c>
+      <c r="C28" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D28" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E28" s="10">
+        <f>-PPMT($C$7,B28,$C$3,$H$11)</f>
+        <v>-7680.5984304097747</v>
+      </c>
+      <c r="F28" s="10">
+        <f>-IPMT($C$7,B28,$C$3,$H$11)</f>
+        <v>-4318.4015695902444</v>
+      </c>
+      <c r="J28" s="46"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>18</v>
+      </c>
+      <c r="C29" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D29" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E29" s="10">
+        <f>-PPMT($C$7,B29,$C$3,$H$11)</f>
+        <v>-7742.0305468868437</v>
+      </c>
+      <c r="F29" s="10">
+        <f>-IPMT($C$7,B29,$C$3,$H$11)</f>
+        <v>-4256.9694531131754</v>
+      </c>
+      <c r="J29" s="46"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
+        <v>19</v>
+      </c>
+      <c r="C30" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D30" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E30" s="10">
+        <f>-PPMT($C$7,B30,$C$3,$H$11)</f>
+        <v>-7803.9540189489044</v>
+      </c>
+      <c r="F30" s="10">
+        <f>-IPMT($C$7,B30,$C$3,$H$11)</f>
+        <v>-4195.0459810511156</v>
+      </c>
+      <c r="J30" s="46"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <v>20</v>
+      </c>
+      <c r="C31" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D31" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E31" s="10">
+        <f>-PPMT($C$7,B31,$C$3,$H$11)</f>
+        <v>-7866.3727766300253</v>
+      </c>
+      <c r="F31" s="10">
+        <f>-IPMT($C$7,B31,$C$3,$H$11)</f>
+        <v>-4132.6272233699938</v>
+      </c>
+      <c r="J31" s="46"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <v>21</v>
+      </c>
+      <c r="C32" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D32" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E32" s="10">
+        <f>-PPMT($C$7,B32,$C$3,$H$11)</f>
+        <v>-7929.2907813980737</v>
+      </c>
+      <c r="F32" s="10">
+        <f>-IPMT($C$7,B32,$C$3,$H$11)</f>
+        <v>-4069.7092186019458</v>
+      </c>
+      <c r="J32" s="46"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
+        <v>22</v>
+      </c>
+      <c r="C33" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D33" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E33" s="10">
+        <f>-PPMT($C$7,B33,$C$3,$H$11)</f>
+        <v>-7992.7120264061159</v>
+      </c>
+      <c r="F33" s="10">
+        <f>-IPMT($C$7,B33,$C$3,$H$11)</f>
+        <v>-4006.287973593905</v>
+      </c>
+      <c r="J33" s="46"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <v>23</v>
+      </c>
+      <c r="C34" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D34" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E34" s="10">
+        <f>-PPMT($C$7,B34,$C$3,$H$11)</f>
+        <v>-8056.6405367458556</v>
+      </c>
+      <c r="F34" s="10">
+        <f>-IPMT($C$7,B34,$C$3,$H$11)</f>
+        <v>-3942.359463254164</v>
+      </c>
+      <c r="J34" s="46"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <v>24</v>
+      </c>
+      <c r="C35" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D35" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E35" s="10">
+        <f>-PPMT($C$7,B35,$C$3,$H$11)</f>
+        <v>-8121.080369703096</v>
+      </c>
+      <c r="F35" s="10">
+        <f>-IPMT($C$7,B35,$C$3,$H$11)</f>
+        <v>-3877.9196302969231</v>
+      </c>
+      <c r="J35" s="46"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <v>25</v>
+      </c>
+      <c r="C36" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D36" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E36" s="10">
+        <f>-PPMT($C$7,B36,$C$3,$H$11)</f>
+        <v>-8186.0356150152284</v>
+      </c>
+      <c r="F36" s="10">
+        <f>-IPMT($C$7,B36,$C$3,$H$11)</f>
+        <v>-3812.9643849847921</v>
+      </c>
+      <c r="J36" s="46"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <v>26</v>
+      </c>
+      <c r="C37" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D37" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E37" s="10">
+        <f>-PPMT($C$7,B37,$C$3,$H$11)</f>
+        <v>-8251.5103951307956</v>
+      </c>
+      <c r="F37" s="10">
+        <f>-IPMT($C$7,B37,$C$3,$H$11)</f>
+        <v>-3747.489604869224</v>
+      </c>
+      <c r="J37" s="46"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <v>27</v>
+      </c>
+      <c r="C38" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D38" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E38" s="10">
+        <f>-PPMT($C$7,B38,$C$3,$H$11)</f>
+        <v>-8317.508865471129</v>
+      </c>
+      <c r="F38" s="10">
+        <f>-IPMT($C$7,B38,$C$3,$H$11)</f>
+        <v>-3681.4911345288901</v>
+      </c>
+      <c r="J38" s="46"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <v>28</v>
+      </c>
+      <c r="C39" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D39" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E39" s="10">
+        <f>-PPMT($C$7,B39,$C$3,$H$11)</f>
+        <v>-8384.0352146940786</v>
+      </c>
+      <c r="F39" s="10">
+        <f>-IPMT($C$7,B39,$C$3,$H$11)</f>
+        <v>-3614.9647853059405</v>
+      </c>
+      <c r="J39" s="46"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <v>29</v>
+      </c>
+      <c r="C40" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D40" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E40" s="10">
+        <f>-PPMT($C$7,B40,$C$3,$H$11)</f>
+        <v>-8451.0936649598425</v>
+      </c>
+      <c r="F40" s="10">
+        <f>-IPMT($C$7,B40,$C$3,$H$11)</f>
+        <v>-3547.9063350401775</v>
+      </c>
+      <c r="J40" s="46"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <v>30</v>
+      </c>
+      <c r="C41" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D41" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E41" s="10">
+        <f>-PPMT($C$7,B41,$C$3,$H$11)</f>
+        <v>-8518.6884721989372</v>
+      </c>
+      <c r="F41" s="10">
+        <f>-IPMT($C$7,B41,$C$3,$H$11)</f>
+        <v>-3480.3115278010837</v>
+      </c>
+      <c r="J41" s="46"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="2">
+        <v>31</v>
+      </c>
+      <c r="C42" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D42" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E42" s="10">
+        <f>-PPMT($C$7,B42,$C$3,$H$11)</f>
+        <v>-8586.8239263822961</v>
+      </c>
+      <c r="F42" s="10">
+        <f>-IPMT($C$7,B42,$C$3,$H$11)</f>
+        <v>-3412.1760736177216</v>
+      </c>
+      <c r="J42" s="46"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="2">
+        <v>32</v>
+      </c>
+      <c r="C43" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D43" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E43" s="10">
+        <f>-PPMT($C$7,B43,$C$3,$H$11)</f>
+        <v>-8655.5043517935592</v>
+      </c>
+      <c r="F43" s="10">
+        <f>-IPMT($C$7,B43,$C$3,$H$11)</f>
+        <v>-3343.4956482064617</v>
+      </c>
+      <c r="J43" s="46"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44" s="2">
+        <v>33</v>
+      </c>
+      <c r="C44" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D44" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E44" s="10">
+        <f>-PPMT($C$7,B44,$C$3,$H$11)</f>
+        <v>-8724.7341073034804</v>
+      </c>
+      <c r="F44" s="10">
+        <f>-IPMT($C$7,B44,$C$3,$H$11)</f>
+        <v>-3274.2658926965391</v>
+      </c>
+      <c r="J44" s="46"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B45" s="2">
+        <v>34</v>
+      </c>
+      <c r="C45" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D45" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E45" s="10">
+        <f>-PPMT($C$7,B45,$C$3,$H$11)</f>
+        <v>-8794.5175866466034</v>
+      </c>
+      <c r="F45" s="10">
+        <f>-IPMT($C$7,B45,$C$3,$H$11)</f>
+        <v>-3204.4824133534166</v>
+      </c>
+      <c r="J45" s="46"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
+        <v>35</v>
+      </c>
+      <c r="C46" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D46" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E46" s="10">
+        <f>-PPMT($C$7,B46,$C$3,$H$11)</f>
+        <v>-8864.8592187000959</v>
+      </c>
+      <c r="F46" s="10">
+        <f>-IPMT($C$7,B46,$C$3,$H$11)</f>
+        <v>-3134.140781299925</v>
+      </c>
+      <c r="J46" s="46"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B47" s="2">
+        <v>36</v>
+      </c>
+      <c r="C47" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D47" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E47" s="10">
+        <f>-PPMT($C$7,B47,$C$3,$H$11)</f>
+        <v>-8935.763467764833</v>
+      </c>
+      <c r="F47" s="10">
+        <f>-IPMT($C$7,B47,$C$3,$H$11)</f>
+        <v>-3063.2365322351884</v>
+      </c>
+      <c r="J47" s="46"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B48" s="2">
+        <v>37</v>
+      </c>
+      <c r="C48" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D48" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E48" s="10">
+        <f>-PPMT($C$7,B48,$C$3,$H$11)</f>
+        <v>-9007.2348338487354</v>
+      </c>
+      <c r="F48" s="10">
+        <f>-IPMT($C$7,B48,$C$3,$H$11)</f>
+        <v>-2991.7651661512855</v>
+      </c>
+      <c r="J48" s="46"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B49" s="2">
+        <v>38</v>
+      </c>
+      <c r="C49" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D49" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E49" s="10">
+        <f>-PPMT($C$7,B49,$C$3,$H$11)</f>
+        <v>-9079.2778529523621</v>
+      </c>
+      <c r="F49" s="10">
+        <f>-IPMT($C$7,B49,$C$3,$H$11)</f>
+        <v>-2919.722147047657</v>
+      </c>
+      <c r="J49" s="46"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B50" s="2">
+        <v>39</v>
+      </c>
+      <c r="C50" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D50" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E50" s="10">
+        <f>-PPMT($C$7,B50,$C$3,$H$11)</f>
+        <v>-9151.8970973567957</v>
+      </c>
+      <c r="F50" s="10">
+        <f>-IPMT($C$7,B50,$C$3,$H$11)</f>
+        <v>-2847.1029026432225</v>
+      </c>
+      <c r="J50" s="46"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B51" s="2">
+        <v>40</v>
+      </c>
+      <c r="C51" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D51" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E51" s="10">
+        <f>-PPMT($C$7,B51,$C$3,$H$11)</f>
+        <v>-9225.0971759138247</v>
+      </c>
+      <c r="F51" s="10">
+        <f>-IPMT($C$7,B51,$C$3,$H$11)</f>
+        <v>-2773.9028240861962</v>
+      </c>
+      <c r="J51" s="46"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B52" s="2">
+        <v>41</v>
+      </c>
+      <c r="C52" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D52" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E52" s="10">
+        <f>-PPMT($C$7,B52,$C$3,$H$11)</f>
+        <v>-9298.8827343384401</v>
+      </c>
+      <c r="F52" s="10">
+        <f>-IPMT($C$7,B52,$C$3,$H$11)</f>
+        <v>-2700.117265661579</v>
+      </c>
+      <c r="J52" s="46"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B53" s="2">
+        <v>42</v>
+      </c>
+      <c r="C53" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D53" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E53" s="10">
+        <f>-PPMT($C$7,B53,$C$3,$H$11)</f>
+        <v>-9373.258455503701</v>
+      </c>
+      <c r="F53" s="10">
+        <f>-IPMT($C$7,B53,$C$3,$H$11)</f>
+        <v>-2625.7415444963203</v>
+      </c>
+      <c r="J53" s="46"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="45"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B54" s="2">
+        <v>43</v>
+      </c>
+      <c r="C54" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D54" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E54" s="10">
+        <f>-PPMT($C$7,B54,$C$3,$H$11)</f>
+        <v>-9448.2290597379142</v>
+      </c>
+      <c r="F54" s="10">
+        <f>-IPMT($C$7,B54,$C$3,$H$11)</f>
+        <v>-2550.7709402621063</v>
+      </c>
+      <c r="J54" s="46"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B55" s="2">
+        <v>44</v>
+      </c>
+      <c r="C55" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D55" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E55" s="10">
+        <f>-PPMT($C$7,B55,$C$3,$H$11)</f>
+        <v>-9523.7993051242338</v>
+      </c>
+      <c r="F55" s="10">
+        <f>-IPMT($C$7,B55,$C$3,$H$11)</f>
+        <v>-2475.2006948757871</v>
+      </c>
+      <c r="J55" s="46"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="45"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B56" s="2">
+        <v>45</v>
+      </c>
+      <c r="C56" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D56" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E56" s="10">
+        <f>-PPMT($C$7,B56,$C$3,$H$11)</f>
+        <v>-9599.9739878026248</v>
+      </c>
+      <c r="F56" s="10">
+        <f>-IPMT($C$7,B56,$C$3,$H$11)</f>
+        <v>-2399.0260121973947</v>
+      </c>
+      <c r="J56" s="46"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="45"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B57" s="2">
+        <v>46</v>
+      </c>
+      <c r="C57" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D57" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E57" s="10">
+        <f>-PPMT($C$7,B57,$C$3,$H$11)</f>
+        <v>-9676.7579422742638</v>
+      </c>
+      <c r="F57" s="10">
+        <f>-IPMT($C$7,B57,$C$3,$H$11)</f>
+        <v>-2322.2420577257558</v>
+      </c>
+      <c r="J57" s="46"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="45"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B58" s="2">
+        <v>47</v>
+      </c>
+      <c r="C58" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D58" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E58" s="10">
+        <f>-PPMT($C$7,B58,$C$3,$H$11)</f>
+        <v>-9754.1560417083565</v>
+      </c>
+      <c r="F58" s="10">
+        <f>-IPMT($C$7,B58,$C$3,$H$11)</f>
+        <v>-2244.8439582916626</v>
+      </c>
+      <c r="J58" s="46"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B59" s="2">
+        <v>48</v>
+      </c>
+      <c r="C59" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D59" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E59" s="10">
+        <f>-PPMT($C$7,B59,$C$3,$H$11)</f>
+        <v>-9832.1731982514284</v>
+      </c>
+      <c r="F59" s="10">
+        <f>-IPMT($C$7,B59,$C$3,$H$11)</f>
+        <v>-2166.8268017485934</v>
+      </c>
+      <c r="J59" s="46"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="45"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B60" s="2">
+        <v>49</v>
+      </c>
+      <c r="C60" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D60" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E60" s="10">
+        <f>-PPMT($C$7,B60,$C$3,$H$11)</f>
+        <v>-9910.8143633390628</v>
+      </c>
+      <c r="F60" s="10">
+        <f>-IPMT($C$7,B60,$C$3,$H$11)</f>
+        <v>-2088.1856366609563</v>
+      </c>
+      <c r="J60" s="46"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="45"/>
+      <c r="O60" s="45"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B61" s="2">
+        <v>50</v>
+      </c>
+      <c r="C61" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D61" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E61" s="10">
+        <f>-PPMT($C$7,B61,$C$3,$H$11)</f>
+        <v>-9990.084528010173</v>
+      </c>
+      <c r="F61" s="10">
+        <f>-IPMT($C$7,B61,$C$3,$H$11)</f>
+        <v>-2008.9154719898463</v>
+      </c>
+      <c r="J61" s="46"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B62" s="2">
+        <v>51</v>
+      </c>
+      <c r="C62" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D62" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E62" s="10">
+        <f>-PPMT($C$7,B62,$C$3,$H$11)</f>
+        <v>-10069.98872322374</v>
+      </c>
+      <c r="F62" s="10">
+        <f>-IPMT($C$7,B62,$C$3,$H$11)</f>
+        <v>-1929.0112767762787</v>
+      </c>
+      <c r="J62" s="46"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="45"/>
+      <c r="O62" s="45"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B63" s="2">
+        <v>52</v>
+      </c>
+      <c r="C63" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D63" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E63" s="10">
+        <f>-PPMT($C$7,B63,$C$3,$H$11)</f>
+        <v>-10150.532020178123</v>
+      </c>
+      <c r="F63" s="10">
+        <f>-IPMT($C$7,B63,$C$3,$H$11)</f>
+        <v>-1848.467979821897</v>
+      </c>
+      <c r="J63" s="46"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="45"/>
+      <c r="O63" s="45"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B64" s="2">
+        <v>53</v>
+      </c>
+      <c r="C64" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D64" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E64" s="10">
+        <f>-PPMT($C$7,B64,$C$3,$H$11)</f>
+        <v>-10231.719530632896</v>
+      </c>
+      <c r="F64" s="10">
+        <f>-IPMT($C$7,B64,$C$3,$H$11)</f>
+        <v>-1767.2804693671242</v>
+      </c>
+      <c r="J64" s="46"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="45"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B65" s="2">
+        <v>54</v>
+      </c>
+      <c r="C65" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D65" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E65" s="10">
+        <f>-PPMT($C$7,B65,$C$3,$H$11)</f>
+        <v>-10313.556407233278</v>
+      </c>
+      <c r="F65" s="10">
+        <f>-IPMT($C$7,B65,$C$3,$H$11)</f>
+        <v>-1685.4435927667412</v>
+      </c>
+      <c r="J65" s="46"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="45"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B66" s="2">
+        <v>55</v>
+      </c>
+      <c r="C66" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D66" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E66" s="10">
+        <f>-PPMT($C$7,B66,$C$3,$H$11)</f>
+        <v>-10396.047843837156</v>
+      </c>
+      <c r="F66" s="10">
+        <f>-IPMT($C$7,B66,$C$3,$H$11)</f>
+        <v>-1602.9521561628655</v>
+      </c>
+      <c r="J66" s="46"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="48"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="45"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B67" s="2">
+        <v>56</v>
+      </c>
+      <c r="C67" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D67" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E67" s="10">
+        <f>-PPMT($C$7,B67,$C$3,$H$11)</f>
+        <v>-10479.199075844699</v>
+      </c>
+      <c r="F67" s="10">
+        <f>-IPMT($C$7,B67,$C$3,$H$11)</f>
+        <v>-1519.8009241553209</v>
+      </c>
+      <c r="J67" s="46"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="45"/>
+      <c r="O67" s="45"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B68" s="2">
+        <v>57</v>
+      </c>
+      <c r="C68" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D68" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E68" s="10">
+        <f>-PPMT($C$7,B68,$C$3,$H$11)</f>
+        <v>-10563.015380530653</v>
+      </c>
+      <c r="F68" s="10">
+        <f>-IPMT($C$7,B68,$C$3,$H$11)</f>
+        <v>-1435.9846194693671</v>
+      </c>
+      <c r="J68" s="46"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="45"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B69" s="2">
+        <v>58</v>
+      </c>
+      <c r="C69" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D69" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E69" s="10">
+        <f>-PPMT($C$7,B69,$C$3,$H$11)</f>
+        <v>-10647.502077379249</v>
+      </c>
+      <c r="F69" s="10">
+        <f>-IPMT($C$7,B69,$C$3,$H$11)</f>
+        <v>-1351.4979226207715</v>
+      </c>
+      <c r="J69" s="46"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="45"/>
+      <c r="O69" s="45"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B70" s="2">
+        <v>59</v>
+      </c>
+      <c r="C70" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D70" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E70" s="10">
+        <f>-PPMT($C$7,B70,$C$3,$H$11)</f>
+        <v>-10732.664528421816</v>
+      </c>
+      <c r="F70" s="10">
+        <f>-IPMT($C$7,B70,$C$3,$H$11)</f>
+        <v>-1266.3354715782034</v>
+      </c>
+      <c r="J70" s="46"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="45"/>
+      <c r="O70" s="45"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B71" s="2">
+        <v>60</v>
+      </c>
+      <c r="C71" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D71" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E71" s="10">
+        <f>-PPMT($C$7,B71,$C$3,$H$11)</f>
+        <v>-10818.508138577094</v>
+      </c>
+      <c r="F71" s="10">
+        <f>-IPMT($C$7,B71,$C$3,$H$11)</f>
+        <v>-1180.491861422928</v>
+      </c>
+      <c r="J71" s="46"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="48"/>
+      <c r="N71" s="45"/>
+      <c r="O71" s="45"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B72" s="2">
+        <v>61</v>
+      </c>
+      <c r="C72" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D72" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E72" s="10">
+        <f>-PPMT($C$7,B72,$C$3,$H$11)</f>
+        <v>-10905.038355994244</v>
+      </c>
+      <c r="F72" s="10">
+        <f>-IPMT($C$7,B72,$C$3,$H$11)</f>
+        <v>-1093.9616440057771</v>
+      </c>
+      <c r="J72" s="46"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="48"/>
+      <c r="N72" s="45"/>
+      <c r="O72" s="45"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B73" s="2">
+        <v>62</v>
+      </c>
+      <c r="C73" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D73" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E73" s="10">
+        <f>-PPMT($C$7,B73,$C$3,$H$11)</f>
+        <v>-10992.260672398645</v>
+      </c>
+      <c r="F73" s="10">
+        <f>-IPMT($C$7,B73,$C$3,$H$11)</f>
+        <v>-1006.7393276013767</v>
+      </c>
+      <c r="J73" s="46"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="48"/>
+      <c r="N73" s="45"/>
+      <c r="O73" s="45"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B74" s="2">
+        <v>63</v>
+      </c>
+      <c r="C74" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D74" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E74" s="10">
+        <f>-PPMT($C$7,B74,$C$3,$H$11)</f>
+        <v>-11080.18062344041</v>
+      </c>
+      <c r="F74" s="10">
+        <f>-IPMT($C$7,B74,$C$3,$H$11)</f>
+        <v>-918.81937655960962</v>
+      </c>
+      <c r="J74" s="46"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="48"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="45"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B75" s="2">
+        <v>64</v>
+      </c>
+      <c r="C75" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D75" s="49">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E75" s="10">
+        <f>-PPMT($C$7,B75,$C$3,$H$11)</f>
+        <v>-11168.803789045727</v>
+      </c>
+      <c r="F75" s="10">
+        <f>-IPMT($C$7,B75,$C$3,$H$11)</f>
+        <v>-830.19621095429125</v>
+      </c>
+      <c r="J75" s="46"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="48"/>
+      <c r="N75" s="45"/>
+      <c r="O75" s="45"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B76" s="2">
+        <v>65</v>
+      </c>
+      <c r="C76" s="49">
+        <f t="shared" si="1"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D76" s="49">
+        <f t="shared" ref="D76:D83" si="2">$C$2</f>
+        <v>-11999</v>
+      </c>
+      <c r="E76" s="10">
+        <f>-PPMT($C$7,B76,$C$3,$H$11)</f>
+        <v>-11258.135793770987</v>
+      </c>
+      <c r="F76" s="10">
+        <f>-IPMT($C$7,B76,$C$3,$H$11)</f>
+        <v>-740.86420622903188</v>
+      </c>
+      <c r="J76" s="46"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="48"/>
+      <c r="N76" s="45"/>
+      <c r="O76" s="45"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B77" s="2">
+        <v>66</v>
+      </c>
+      <c r="C77" s="49">
+        <f t="shared" ref="C77:C83" si="3">D77*1.16</f>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D77" s="49">
         <f t="shared" si="2"/>
         <v>-11999</v>
       </c>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="39">
-        <v>4</v>
-      </c>
-      <c r="D10" s="16">
-        <f t="shared" si="0"/>
-        <v>-11971.344405044658</v>
-      </c>
-      <c r="E10" s="16">
-        <f t="shared" si="1"/>
-        <v>-27.655594955343076</v>
-      </c>
-      <c r="F10" s="29">
+      <c r="E77" s="10">
+        <f>-PPMT($C$7,B77,$C$3,$H$11)</f>
+        <v>-11348.18230715975</v>
+      </c>
+      <c r="F77" s="10">
+        <f>-IPMT($C$7,B77,$C$3,$H$11)</f>
+        <v>-650.81769284026984</v>
+      </c>
+      <c r="J77" s="46"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="48"/>
+      <c r="N77" s="45"/>
+      <c r="O77" s="45"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B78" s="2">
+        <v>67</v>
+      </c>
+      <c r="C78" s="49">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D78" s="49">
         <f t="shared" si="2"/>
         <v>-11999</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C11" s="39">
-        <v>5</v>
-      </c>
-      <c r="D11" s="16">
-        <f t="shared" si="0"/>
-        <v>-11968.800090308763</v>
-      </c>
-      <c r="E11" s="16">
-        <f t="shared" si="1"/>
-        <v>-30.199909691234655</v>
-      </c>
-      <c r="F11" s="29">
+      <c r="E78" s="10">
+        <f>-PPMT($C$7,B78,$C$3,$H$11)</f>
+        <v>-11438.949044102572</v>
+      </c>
+      <c r="F78" s="10">
+        <f>-IPMT($C$7,B78,$C$3,$H$11)</f>
+        <v>-560.05095589744826</v>
+      </c>
+      <c r="J78" s="46"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="48"/>
+      <c r="N78" s="45"/>
+      <c r="O78" s="45"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B79" s="2">
+        <v>68</v>
+      </c>
+      <c r="C79" s="49">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D79" s="49">
         <f t="shared" si="2"/>
         <v>-11999</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C12" s="39">
-        <v>6</v>
-      </c>
-      <c r="D12" s="16">
-        <f t="shared" si="0"/>
-        <v>-11966.021698617171</v>
-      </c>
-      <c r="E12" s="16">
-        <f t="shared" si="1"/>
-        <v>-32.978301382828228</v>
-      </c>
-      <c r="F12" s="29">
+      <c r="E79" s="10">
+        <f>-PPMT($C$7,B79,$C$3,$H$11)</f>
+        <v>-11530.441765199706</v>
+      </c>
+      <c r="F79" s="10">
+        <f>-IPMT($C$7,B79,$C$3,$H$11)</f>
+        <v>-468.55823480031427</v>
+      </c>
+      <c r="J79" s="46"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="48"/>
+      <c r="N79" s="45"/>
+      <c r="O79" s="45"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B80" s="2">
+        <v>69</v>
+      </c>
+      <c r="C80" s="49">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D80" s="49">
         <f t="shared" si="2"/>
         <v>-11999</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="39">
-        <v>7</v>
-      </c>
-      <c r="D13" s="16">
-        <f t="shared" si="0"/>
-        <v>-11962.987694889951</v>
-      </c>
-      <c r="E13" s="16">
-        <f t="shared" si="1"/>
-        <v>-36.012305110048437</v>
-      </c>
-      <c r="F13" s="29">
+      <c r="E80" s="10">
+        <f>-PPMT($C$7,B80,$C$3,$H$11)</f>
+        <v>-11622.666277126704</v>
+      </c>
+      <c r="F80" s="10">
+        <f>-IPMT($C$7,B80,$C$3,$H$11)</f>
+        <v>-376.33372287331622</v>
+      </c>
+      <c r="J80" s="46"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="48"/>
+      <c r="N80" s="45"/>
+      <c r="O80" s="45"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B81" s="2">
+        <v>70</v>
+      </c>
+      <c r="C81" s="49">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D81" s="49">
         <f t="shared" si="2"/>
         <v>-11999</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="39">
-        <v>8</v>
-      </c>
-      <c r="D14" s="16">
-        <f t="shared" si="0"/>
-        <v>-11959.674562819826</v>
-      </c>
-      <c r="E14" s="16">
-        <f t="shared" si="1"/>
-        <v>-39.325437180172877</v>
-      </c>
-      <c r="F14" s="29">
+      <c r="E81" s="10">
+        <f>-PPMT($C$7,B81,$C$3,$H$11)</f>
+        <v>-11715.628433002943</v>
+      </c>
+      <c r="F81" s="10">
+        <f>-IPMT($C$7,B81,$C$3,$H$11)</f>
+        <v>-283.37156699707731</v>
+      </c>
+      <c r="J81" s="45"/>
+      <c r="K81" s="45"/>
+      <c r="L81" s="45"/>
+      <c r="M81" s="45"/>
+      <c r="N81" s="45"/>
+      <c r="O81" s="45"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B82" s="2">
+        <v>71</v>
+      </c>
+      <c r="C82" s="49">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D82" s="49">
         <f t="shared" si="2"/>
         <v>-11999</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="39">
-        <v>9</v>
-      </c>
-      <c r="D15" s="16">
-        <f t="shared" si="0"/>
-        <v>-11956.056622599252</v>
-      </c>
-      <c r="E15" s="16">
-        <f t="shared" si="1"/>
-        <v>-42.943377400748794</v>
-      </c>
-      <c r="F15" s="29">
+      <c r="E82" s="10">
+        <f>-PPMT($C$7,B82,$C$3,$H$11)</f>
+        <v>-11809.334132763099</v>
+      </c>
+      <c r="F82" s="10">
+        <f>-IPMT($C$7,B82,$C$3,$H$11)</f>
+        <v>-189.66586723692205</v>
+      </c>
+      <c r="J82" s="45"/>
+      <c r="K82" s="45"/>
+      <c r="L82" s="45"/>
+      <c r="M82" s="45"/>
+      <c r="N82" s="45"/>
+      <c r="O82" s="45"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B83" s="2">
+        <v>72</v>
+      </c>
+      <c r="C83" s="49">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D83" s="49">
         <f t="shared" si="2"/>
         <v>-11999</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C16" s="39">
-        <v>10</v>
-      </c>
-      <c r="D16" s="16">
-        <f t="shared" si="0"/>
-        <v>-11952.105831878382</v>
-      </c>
-      <c r="E16" s="16">
-        <f t="shared" si="1"/>
-        <v>-46.894168121617717</v>
-      </c>
-      <c r="F16" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="39">
-        <v>11</v>
-      </c>
-      <c r="D17" s="16">
-        <f t="shared" si="0"/>
-        <v>-11947.791568411192</v>
-      </c>
-      <c r="E17" s="16">
-        <f t="shared" si="1"/>
-        <v>-51.208431588806512</v>
-      </c>
-      <c r="F17" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="39">
-        <v>12</v>
-      </c>
-      <c r="D18" s="16">
-        <f t="shared" si="0"/>
-        <v>-11943.080392705022</v>
-      </c>
-      <c r="E18" s="16">
-        <f t="shared" si="1"/>
-        <v>-55.919607294976743</v>
-      </c>
-      <c r="F18" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="39">
-        <v>13</v>
-      </c>
-      <c r="D19" s="16">
-        <f t="shared" si="0"/>
-        <v>-11937.935788833885</v>
-      </c>
-      <c r="E19" s="16">
-        <f t="shared" si="1"/>
-        <v>-61.064211166114568</v>
-      </c>
-      <c r="F19" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="39">
-        <v>14</v>
-      </c>
-      <c r="D20" s="16">
-        <f t="shared" si="0"/>
-        <v>-11932.317881406601</v>
-      </c>
-      <c r="E20" s="16">
-        <f t="shared" si="1"/>
-        <v>-66.682118593397149</v>
-      </c>
-      <c r="F20" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="39">
-        <v>15</v>
-      </c>
-      <c r="D21" s="16">
-        <f t="shared" si="0"/>
-        <v>-11926.183126496011</v>
-      </c>
-      <c r="E21" s="16">
-        <f t="shared" si="1"/>
-        <v>-72.81687350398964</v>
-      </c>
-      <c r="F21" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="39">
-        <v>16</v>
-      </c>
-      <c r="D22" s="16">
-        <f t="shared" si="0"/>
-        <v>-11919.483974133644</v>
-      </c>
-      <c r="E22" s="16">
-        <f t="shared" si="1"/>
-        <v>-79.516025866356728</v>
-      </c>
-      <c r="F22" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="39">
-        <v>17</v>
-      </c>
-      <c r="D23" s="16">
-        <f t="shared" si="0"/>
-        <v>-11912.168499753938</v>
-      </c>
-      <c r="E23" s="16">
-        <f t="shared" si="1"/>
-        <v>-86.831500246061509</v>
-      </c>
-      <c r="F23" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="39">
-        <v>18</v>
-      </c>
-      <c r="D24" s="16">
-        <f t="shared" si="0"/>
-        <v>-11904.1800017313</v>
-      </c>
-      <c r="E24" s="16">
-        <f t="shared" si="1"/>
-        <v>-94.819998268699223</v>
-      </c>
-      <c r="F24" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="39">
-        <v>19</v>
-      </c>
-      <c r="D25" s="16">
-        <f t="shared" si="0"/>
-        <v>-11895.45656189058</v>
-      </c>
-      <c r="E25" s="16">
-        <f t="shared" si="1"/>
-        <v>-103.54343810941948</v>
-      </c>
-      <c r="F25" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="39">
-        <v>20</v>
-      </c>
-      <c r="D26" s="16">
-        <f t="shared" si="0"/>
-        <v>-11885.930565584513</v>
-      </c>
-      <c r="E26" s="16">
-        <f t="shared" si="1"/>
-        <v>-113.06943441548611</v>
-      </c>
-      <c r="F26" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="39">
-        <v>21</v>
-      </c>
-      <c r="D27" s="16">
-        <f t="shared" si="0"/>
-        <v>-11875.528177618289</v>
-      </c>
-      <c r="E27" s="16">
-        <f t="shared" si="1"/>
-        <v>-123.47182238171079</v>
-      </c>
-      <c r="F27" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="39">
-        <v>22</v>
-      </c>
-      <c r="D28" s="16">
-        <f t="shared" si="0"/>
-        <v>-11864.168769959171</v>
-      </c>
-      <c r="E28" s="16">
-        <f t="shared" si="1"/>
-        <v>-134.83123004082825</v>
-      </c>
-      <c r="F28" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="39">
-        <v>23</v>
-      </c>
-      <c r="D29" s="16">
-        <f t="shared" si="0"/>
-        <v>-11851.764296795414</v>
-      </c>
-      <c r="E29" s="16">
-        <f t="shared" si="1"/>
-        <v>-147.23570320458438</v>
-      </c>
-      <c r="F29" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="39">
-        <v>24</v>
-      </c>
-      <c r="D30" s="16">
-        <f t="shared" si="0"/>
-        <v>-11838.218612100593</v>
-      </c>
-      <c r="E30" s="16">
-        <f t="shared" si="1"/>
-        <v>-160.78138789940621</v>
-      </c>
-      <c r="F30" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="39">
-        <v>25</v>
-      </c>
-      <c r="D31" s="16">
-        <f t="shared" si="0"/>
-        <v>-11823.426724413848</v>
-      </c>
-      <c r="E31" s="16">
-        <f t="shared" si="1"/>
-        <v>-175.57327558615151</v>
-      </c>
-      <c r="F31" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="39">
-        <v>26</v>
-      </c>
-      <c r="D32" s="16">
-        <f t="shared" si="0"/>
-        <v>-11807.273983059922</v>
-      </c>
-      <c r="E32" s="16">
-        <f t="shared" si="1"/>
-        <v>-191.7260169400775</v>
-      </c>
-      <c r="F32" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C33" s="39">
-        <v>27</v>
-      </c>
-      <c r="D33" s="16">
-        <f t="shared" si="0"/>
-        <v>-11789.635189501436</v>
-      </c>
-      <c r="E33" s="16">
-        <f t="shared" si="1"/>
-        <v>-209.36481049856454</v>
-      </c>
-      <c r="F33" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C34" s="39">
-        <v>28</v>
-      </c>
-      <c r="D34" s="16">
-        <f t="shared" si="0"/>
-        <v>-11770.373626935567</v>
-      </c>
-      <c r="E34" s="16">
-        <f t="shared" si="1"/>
-        <v>-228.62637306443261</v>
-      </c>
-      <c r="F34" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C35" s="39">
-        <v>29</v>
-      </c>
-      <c r="D35" s="16">
-        <f t="shared" si="0"/>
-        <v>-11749.340000613638</v>
-      </c>
-      <c r="E35" s="16">
-        <f t="shared" si="1"/>
-        <v>-249.65999938636043</v>
-      </c>
-      <c r="F35" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C36" s="39">
-        <v>30</v>
-      </c>
-      <c r="D36" s="16">
-        <f t="shared" si="0"/>
-        <v>-11726.371280670093</v>
-      </c>
-      <c r="E36" s="16">
-        <f t="shared" si="1"/>
-        <v>-272.62871932990549</v>
-      </c>
-      <c r="F36" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C37" s="39">
-        <v>31</v>
-      </c>
-      <c r="D37" s="16">
-        <f t="shared" si="0"/>
-        <v>-11701.289438491742</v>
-      </c>
-      <c r="E37" s="16">
-        <f t="shared" si="1"/>
-        <v>-297.71056150825689</v>
-      </c>
-      <c r="F37" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="39">
-        <v>32</v>
-      </c>
-      <c r="D38" s="16">
-        <f t="shared" si="0"/>
-        <v>-11673.900066832983</v>
-      </c>
-      <c r="E38" s="16">
-        <f t="shared" si="1"/>
-        <v>-325.0999331670165</v>
-      </c>
-      <c r="F38" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C39" s="39">
-        <v>33</v>
-      </c>
-      <c r="D39" s="16">
-        <f t="shared" si="0"/>
-        <v>-11643.990872981616</v>
-      </c>
-      <c r="E39" s="16">
-        <f t="shared" si="1"/>
-        <v>-355.009127018382</v>
-      </c>
-      <c r="F39" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C40" s="39">
-        <v>34</v>
-      </c>
-      <c r="D40" s="16">
-        <f t="shared" si="0"/>
-        <v>-11611.330033295926</v>
-      </c>
-      <c r="E40" s="16">
-        <f t="shared" si="1"/>
-        <v>-387.66996670407309</v>
-      </c>
-      <c r="F40" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C41" s="39">
-        <v>35</v>
-      </c>
-      <c r="D41" s="16">
-        <f t="shared" si="0"/>
-        <v>-11575.664396359152</v>
-      </c>
-      <c r="E41" s="16">
-        <f t="shared" si="1"/>
-        <v>-423.33560364084786</v>
-      </c>
-      <c r="F41" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C42" s="39">
-        <v>36</v>
-      </c>
-      <c r="D42" s="16">
-        <f t="shared" si="0"/>
-        <v>-11536.717520824193</v>
-      </c>
-      <c r="E42" s="16">
-        <f t="shared" si="1"/>
-        <v>-462.28247917580586</v>
-      </c>
-      <c r="F42" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C43" s="39">
-        <v>37</v>
-      </c>
-      <c r="D43" s="16">
-        <f t="shared" si="0"/>
-        <v>-11494.187532740019</v>
-      </c>
-      <c r="E43" s="16">
-        <f t="shared" si="1"/>
-        <v>-504.81246725998</v>
-      </c>
-      <c r="F43" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C44" s="39">
-        <v>38</v>
-      </c>
-      <c r="D44" s="16">
-        <f t="shared" si="0"/>
-        <v>-11447.744785752102</v>
-      </c>
-      <c r="E44" s="16">
-        <f t="shared" si="1"/>
-        <v>-551.25521424789815</v>
-      </c>
-      <c r="F44" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C45" s="39">
-        <v>39</v>
-      </c>
-      <c r="D45" s="16">
-        <f t="shared" si="0"/>
-        <v>-11397.029306041293</v>
-      </c>
-      <c r="E45" s="16">
-        <f t="shared" si="1"/>
-        <v>-601.97069395870471</v>
-      </c>
-      <c r="F45" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C46" s="39">
-        <v>40</v>
-      </c>
-      <c r="D46" s="16">
-        <f t="shared" si="0"/>
-        <v>-11341.648002197093</v>
-      </c>
-      <c r="E46" s="16">
-        <f t="shared" si="1"/>
-        <v>-657.35199780290566</v>
-      </c>
-      <c r="F46" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C47" s="39">
-        <v>41</v>
-      </c>
-      <c r="D47" s="16">
-        <f t="shared" si="0"/>
-        <v>-11281.171618399227</v>
-      </c>
-      <c r="E47" s="16">
-        <f t="shared" si="1"/>
-        <v>-717.8283816007729</v>
-      </c>
-      <c r="F47" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C48" s="39">
-        <v>42</v>
-      </c>
-      <c r="D48" s="16">
-        <f t="shared" si="0"/>
-        <v>-11215.131407291956</v>
-      </c>
-      <c r="E48" s="16">
-        <f t="shared" si="1"/>
-        <v>-783.86859270804393</v>
-      </c>
-      <c r="F48" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C49" s="39">
-        <v>43</v>
-      </c>
-      <c r="D49" s="16">
-        <f t="shared" si="0"/>
-        <v>-11143.015496762815</v>
-      </c>
-      <c r="E49" s="16">
-        <f t="shared" si="1"/>
-        <v>-855.98450323718407</v>
-      </c>
-      <c r="F49" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C50" s="39">
-        <v>44</v>
-      </c>
-      <c r="D50" s="16">
-        <f t="shared" si="0"/>
-        <v>-11064.264922464996</v>
-      </c>
-      <c r="E50" s="16">
-        <f t="shared" si="1"/>
-        <v>-934.73507753500508</v>
-      </c>
-      <c r="F50" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C51" s="39">
-        <v>45</v>
-      </c>
-      <c r="D51" s="16">
-        <f t="shared" si="0"/>
-        <v>-10978.269295331775</v>
-      </c>
-      <c r="E51" s="16">
-        <f t="shared" si="1"/>
-        <v>-1020.7307046682253</v>
-      </c>
-      <c r="F51" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C52" s="39">
-        <v>46</v>
-      </c>
-      <c r="D52" s="16">
-        <f t="shared" si="0"/>
-        <v>-10884.362070502297</v>
-      </c>
-      <c r="E52" s="16">
-        <f t="shared" si="1"/>
-        <v>-1114.6379294977021</v>
-      </c>
-      <c r="F52" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C53" s="39">
-        <v>47</v>
-      </c>
-      <c r="D53" s="16">
-        <f t="shared" si="0"/>
-        <v>-10781.815380988508</v>
-      </c>
-      <c r="E53" s="16">
-        <f t="shared" si="1"/>
-        <v>-1217.1846190114907</v>
-      </c>
-      <c r="F53" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C54" s="39">
-        <v>48</v>
-      </c>
-      <c r="D54" s="16">
-        <f t="shared" si="0"/>
-        <v>-10669.83439603945</v>
-      </c>
-      <c r="E54" s="16">
-        <f t="shared" si="1"/>
-        <v>-1329.165603960548</v>
-      </c>
-      <c r="F54" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C55" s="39">
-        <v>49</v>
-      </c>
-      <c r="D55" s="16">
-        <f t="shared" si="0"/>
-        <v>-10547.551160475081</v>
-      </c>
-      <c r="E55" s="16">
-        <f t="shared" si="1"/>
-        <v>-1451.4488395249182</v>
-      </c>
-      <c r="F55" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C56" s="39">
-        <v>50</v>
-      </c>
-      <c r="D56" s="16">
-        <f t="shared" si="0"/>
-        <v>-10414.017867238788</v>
-      </c>
-      <c r="E56" s="16">
-        <f t="shared" si="1"/>
-        <v>-1584.9821327612108</v>
-      </c>
-      <c r="F56" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C57" s="39">
-        <v>51</v>
-      </c>
-      <c r="D57" s="16">
-        <f t="shared" si="0"/>
-        <v>-10268.199511024757</v>
-      </c>
-      <c r="E57" s="16">
-        <f t="shared" si="1"/>
-        <v>-1730.8004889752424</v>
-      </c>
-      <c r="F57" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C58" s="39">
-        <v>52</v>
-      </c>
-      <c r="D58" s="16">
-        <f t="shared" si="0"/>
-        <v>-10108.965866039034</v>
-      </c>
-      <c r="E58" s="16">
-        <f t="shared" si="1"/>
-        <v>-1890.0341339609649</v>
-      </c>
-      <c r="F58" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C59" s="39">
-        <v>53</v>
-      </c>
-      <c r="D59" s="16">
-        <f t="shared" si="0"/>
-        <v>-9935.0827257146266</v>
-      </c>
-      <c r="E59" s="16">
-        <f t="shared" si="1"/>
-        <v>-2063.9172742853734</v>
-      </c>
-      <c r="F59" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C60" s="39">
-        <v>54</v>
-      </c>
-      <c r="D60" s="16">
-        <f t="shared" si="0"/>
-        <v>-9745.2023364803736</v>
-      </c>
-      <c r="E60" s="16">
-        <f t="shared" si="1"/>
-        <v>-2253.7976635196278</v>
-      </c>
-      <c r="F60" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C61" s="39">
-        <v>55</v>
-      </c>
-      <c r="D61" s="16">
-        <f t="shared" si="0"/>
-        <v>-9537.8529514365673</v>
-      </c>
-      <c r="E61" s="16">
-        <f t="shared" si="1"/>
-        <v>-2461.1470485634336</v>
-      </c>
-      <c r="F61" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C62" s="39">
-        <v>56</v>
-      </c>
-      <c r="D62" s="16">
-        <f t="shared" si="0"/>
-        <v>-9311.4274229687308</v>
-      </c>
-      <c r="E62" s="16">
-        <f t="shared" si="1"/>
-        <v>-2687.5725770312692</v>
-      </c>
-      <c r="F62" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C63" s="39">
-        <v>57</v>
-      </c>
-      <c r="D63" s="16">
-        <f t="shared" si="0"/>
-        <v>-9064.1707458818528</v>
-      </c>
-      <c r="E63" s="16">
-        <f t="shared" si="1"/>
-        <v>-2934.8292541181459</v>
-      </c>
-      <c r="F63" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C64" s="39">
-        <v>58</v>
-      </c>
-      <c r="D64" s="16">
-        <f t="shared" si="0"/>
-        <v>-8794.1664545029835</v>
-      </c>
-      <c r="E64" s="16">
-        <f t="shared" si="1"/>
-        <v>-3204.8335454970152</v>
-      </c>
-      <c r="F64" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C65" s="39">
-        <v>59</v>
-      </c>
-      <c r="D65" s="16">
-        <f t="shared" si="0"/>
-        <v>-8499.3217683172588</v>
-      </c>
-      <c r="E65" s="16">
-        <f t="shared" si="1"/>
-        <v>-3499.6782316827403</v>
-      </c>
-      <c r="F65" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C66" s="39">
-        <v>60</v>
-      </c>
-      <c r="D66" s="16">
-        <f t="shared" si="0"/>
-        <v>-8177.3513710024463</v>
-      </c>
-      <c r="E66" s="16">
-        <f t="shared" si="1"/>
-        <v>-3821.6486289975528</v>
-      </c>
-      <c r="F66" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C67" s="39">
-        <v>61</v>
-      </c>
-      <c r="D67" s="16">
-        <f t="shared" si="0"/>
-        <v>-7825.7596971346711</v>
-      </c>
-      <c r="E67" s="16">
-        <f t="shared" si="1"/>
-        <v>-4173.240302865328</v>
-      </c>
-      <c r="F67" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C68" s="39">
-        <v>62</v>
-      </c>
-      <c r="D68" s="16">
-        <f t="shared" si="0"/>
-        <v>-7441.8215892710605</v>
-      </c>
-      <c r="E68" s="16">
-        <f t="shared" si="1"/>
-        <v>-4557.1784107289386</v>
-      </c>
-      <c r="F68" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C69" s="39">
-        <v>63</v>
-      </c>
-      <c r="D69" s="16">
-        <f t="shared" si="0"/>
-        <v>-7022.5611754839992</v>
-      </c>
-      <c r="E69" s="16">
-        <f t="shared" si="1"/>
-        <v>-4976.4388245160008</v>
-      </c>
-      <c r="F69" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C70" s="39">
-        <v>64</v>
-      </c>
-      <c r="D70" s="16">
-        <f t="shared" si="0"/>
-        <v>-6564.7288036285263</v>
-      </c>
-      <c r="E70" s="16">
-        <f t="shared" si="1"/>
-        <v>-5434.2711963714728</v>
-      </c>
-      <c r="F70" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C71" s="39">
-        <v>65</v>
-      </c>
-      <c r="D71" s="16">
-        <f t="shared" ref="D71:D78" si="3">IPMT($C$4,C71,$C$3,$G$6)</f>
-        <v>-6064.7758535623516</v>
-      </c>
-      <c r="E71" s="16">
-        <f t="shared" ref="E71:E78" si="4">PPMT($C$4,C71,$C$3,$G$6)</f>
-        <v>-5934.2241464376484</v>
-      </c>
-      <c r="F71" s="29">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C72" s="39">
-        <v>66</v>
-      </c>
-      <c r="D72" s="16">
-        <f t="shared" si="3"/>
-        <v>-5518.8272320900878</v>
-      </c>
-      <c r="E72" s="16">
-        <f t="shared" si="4"/>
-        <v>-6480.1727679099113</v>
-      </c>
-      <c r="F72" s="29">
-        <f t="shared" ref="F72:F78" si="5">$C$2</f>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C73" s="39">
-        <v>67</v>
-      </c>
-      <c r="D73" s="16">
-        <f t="shared" si="3"/>
-        <v>-4922.6513374423757</v>
-      </c>
-      <c r="E73" s="16">
-        <f t="shared" si="4"/>
-        <v>-7076.3486625576234</v>
-      </c>
-      <c r="F73" s="29">
-        <f t="shared" si="5"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C74" s="39">
-        <v>68</v>
-      </c>
-      <c r="D74" s="16">
-        <f t="shared" si="3"/>
-        <v>-4271.6272604870737</v>
-      </c>
-      <c r="E74" s="16">
-        <f t="shared" si="4"/>
-        <v>-7727.3727395129254</v>
-      </c>
-      <c r="F74" s="29">
-        <f t="shared" si="5"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C75" s="39">
-        <v>69</v>
-      </c>
-      <c r="D75" s="16">
-        <f t="shared" si="3"/>
-        <v>-3560.7089684518855</v>
-      </c>
-      <c r="E75" s="16">
-        <f t="shared" si="4"/>
-        <v>-8438.2910315481149</v>
-      </c>
-      <c r="F75" s="29">
-        <f t="shared" si="5"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C76" s="39">
-        <v>70</v>
-      </c>
-      <c r="D76" s="16">
-        <f t="shared" si="3"/>
-        <v>-2784.3861935494588</v>
-      </c>
-      <c r="E76" s="16">
-        <f t="shared" si="4"/>
-        <v>-9214.6138064505412</v>
-      </c>
-      <c r="F76" s="29">
-        <f t="shared" si="5"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C77" s="39">
-        <v>71</v>
-      </c>
-      <c r="D77" s="16">
-        <f t="shared" si="3"/>
-        <v>-1936.6417233560089</v>
-      </c>
-      <c r="E77" s="16">
-        <f t="shared" si="4"/>
-        <v>-10062.35827664399</v>
-      </c>
-      <c r="F77" s="29">
-        <f t="shared" si="5"/>
-        <v>-11999</v>
-      </c>
-    </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C78" s="39">
-        <v>72</v>
-      </c>
-      <c r="D78" s="16">
-        <f t="shared" si="3"/>
-        <v>-1010.9047619047619</v>
-      </c>
-      <c r="E78" s="16">
-        <f t="shared" si="4"/>
-        <v>-10988.095238095239</v>
-      </c>
-      <c r="F78" s="29">
-        <f t="shared" si="5"/>
-        <v>-11999</v>
-      </c>
+      <c r="E83" s="10">
+        <f>-PPMT($C$7,B83,$C$3,$H$11)</f>
+        <v>-11903.78932353159</v>
+      </c>
+      <c r="F83" s="10">
+        <f>-IPMT($C$7,B83,$C$3,$H$11)</f>
+        <v>-95.210676468430847</v>
+      </c>
+      <c r="J83" s="45"/>
+      <c r="K83" s="45"/>
+      <c r="L83" s="45"/>
+      <c r="M83" s="45"/>
+      <c r="N83" s="45"/>
+      <c r="O83" s="45"/>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J84" s="45"/>
+      <c r="K84" s="45"/>
+      <c r="L84" s="45"/>
+      <c r="M84" s="45"/>
+      <c r="N84" s="45"/>
+      <c r="O84" s="45"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J85" s="45"/>
+      <c r="K85" s="45"/>
+      <c r="L85" s="45"/>
+      <c r="M85" s="45"/>
+      <c r="N85" s="45"/>
+      <c r="O85" s="45"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J86" s="45"/>
+      <c r="K86" s="45"/>
+      <c r="L86" s="45"/>
+      <c r="M86" s="45"/>
+      <c r="N86" s="45"/>
+      <c r="O86" s="45"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J87" s="45"/>
+      <c r="K87" s="45"/>
+      <c r="L87" s="45"/>
+      <c r="M87" s="45"/>
+      <c r="N87" s="45"/>
+      <c r="O87" s="45"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J88" s="45"/>
+      <c r="K88" s="45"/>
+      <c r="L88" s="45"/>
+      <c r="M88" s="45"/>
+      <c r="N88" s="45"/>
+      <c r="O88" s="45"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J89" s="45"/>
+      <c r="K89" s="45"/>
+      <c r="L89" s="45"/>
+      <c r="M89" s="45"/>
+      <c r="N89" s="45"/>
+      <c r="O89" s="45"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J90" s="45"/>
+      <c r="K90" s="45"/>
+      <c r="L90" s="45"/>
+      <c r="M90" s="45"/>
+      <c r="N90" s="45"/>
+      <c r="O90" s="45"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J91" s="45"/>
+      <c r="K91" s="45"/>
+      <c r="L91" s="45"/>
+      <c r="M91" s="45"/>
+      <c r="N91" s="45"/>
+      <c r="O91" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
